--- a/基本設計.xlsx
+++ b/基本設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuyaK\Programs\tamotsuApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEBC60B-B16C-4C47-A3D1-433003BFAE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A773F2D3-2780-4C50-BD70-EFA5877F852A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{D88CB032-6C85-43BC-8203-54BE0CB90655}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{D88CB032-6C85-43BC-8203-54BE0CB90655}"/>
   </bookViews>
   <sheets>
     <sheet name="システム概要" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="347">
   <si>
     <t>1. システム概要</t>
   </si>
@@ -2120,6 +2120,10 @@
   </si>
   <si>
     <t>/health/weight</t>
+  </si>
+  <si>
+    <t>/health/weight</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>/health/meal</t>
@@ -5198,6 +5202,10 @@
       </rPr>
       <t xml:space="preserve"> "含む"</t>
     </r>
+  </si>
+  <si>
+    <t>/nutritionists/profile</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -6158,7 +6166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440B250A-6EF2-4E3E-A02B-E3EC75CDFFED}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -6396,7 +6404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0154776C-EB38-4DD2-B87D-2544AF874083}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -6521,8 +6529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D4FE9-8BA9-4D91-B1AE-9CFF14E398B8}">
   <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6549,207 +6557,207 @@
     </row>
     <row r="4" spans="1:16">
       <c r="P4" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="P5" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="P6" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="P7" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="P8" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="P9" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="P10" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="P11" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="P12" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="P13" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="P14" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="P15" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="P16" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="16:16">
       <c r="P17" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="16:16">
       <c r="P18" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="16:16">
       <c r="P19" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="16:16">
       <c r="P20" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="16:16">
       <c r="P21" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="16:16">
       <c r="P22" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="16:16">
       <c r="P23" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="16:16">
       <c r="P24" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="16:16">
       <c r="P25" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="16:16">
       <c r="P26" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="16:16">
       <c r="P27" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="16:16">
       <c r="P28" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="16:16">
       <c r="P29" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="16:16">
       <c r="P30" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="16:16">
       <c r="P31" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="16:16">
       <c r="P32" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="2:16">
       <c r="P33" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="2:16">
       <c r="P34" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="2:16">
       <c r="P35" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="2:16">
       <c r="P36" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="2:16">
       <c r="P37" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="2:16">
       <c r="P38" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="2:16">
       <c r="P39" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="2:16">
       <c r="P40" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="2:16">
       <c r="P41" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="2:16">
       <c r="P42" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="2:16">
       <c r="P43" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="2:16">
       <c r="P44" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="2:16">
@@ -6757,7 +6765,7 @@
         <v>14</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="2:16">
@@ -6765,12 +6773,12 @@
         <v>57</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="19.5" thickBot="1">
       <c r="P47" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="19.5" thickBot="1">
@@ -6784,7 +6792,7 @@
         <v>118</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="19.5" thickBot="1">
@@ -6798,7 +6806,7 @@
         <v>122</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="19.5" thickBot="1">
@@ -6812,7 +6820,7 @@
         <v>124</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="19.5" thickBot="1">
@@ -6826,7 +6834,7 @@
         <v>128</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="19.5" thickBot="1">
@@ -6840,7 +6848,7 @@
         <v>129</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="19.5" thickBot="1">
@@ -6854,7 +6862,7 @@
         <v>174</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="19.5" thickBot="1">
@@ -6868,35 +6876,35 @@
         <v>173</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="19.5" thickBot="1">
       <c r="C55" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="19.5" thickBot="1">
       <c r="C56" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="2:16" ht="29.25" thickBot="1">
@@ -6910,7 +6918,7 @@
         <v>131</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="19.5" thickBot="1">
@@ -6924,28 +6932,28 @@
         <v>134</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="2:16">
       <c r="P59" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="2:16">
       <c r="B60" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="2:16" ht="19.5">
       <c r="C61" s="17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="2:16">
@@ -6956,7 +6964,7 @@
         <v>153</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="2:16">
@@ -6964,10 +6972,10 @@
         <v>123</v>
       </c>
       <c r="E63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="2:16">
@@ -6975,10 +6983,10 @@
         <v>125</v>
       </c>
       <c r="E64" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="3:16">
@@ -6989,7 +6997,7 @@
         <v>153</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="3:16">
@@ -7000,7 +7008,7 @@
         <v>142</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="67" spans="3:16">
@@ -7011,7 +7019,7 @@
         <v>153</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="3:16">
@@ -7022,7 +7030,7 @@
         <v>144</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="3:16">
@@ -7033,7 +7041,7 @@
         <v>145</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="3:16">
@@ -7041,7 +7049,7 @@
         <v>141</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="3:16">
@@ -7052,7 +7060,7 @@
         <v>166</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="3:16">
@@ -7060,10 +7068,10 @@
         <v>123</v>
       </c>
       <c r="E72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="3:16">
@@ -7071,10 +7079,10 @@
         <v>125</v>
       </c>
       <c r="E73" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="3:16">
@@ -7085,7 +7093,7 @@
         <v>166</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="3:16">
@@ -7096,7 +7104,7 @@
         <v>142</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="3:16">
@@ -7107,7 +7115,7 @@
         <v>166</v>
       </c>
       <c r="P76" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" spans="3:16">
@@ -7118,7 +7126,7 @@
         <v>146</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="3:16">
@@ -7129,7 +7137,7 @@
         <v>170</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="3:16">
@@ -7137,7 +7145,7 @@
         <v>167</v>
       </c>
       <c r="P79" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="3:16">
@@ -7148,7 +7156,7 @@
         <v>166</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" spans="3:16">
@@ -7159,7 +7167,7 @@
         <v>153</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="3:16">
@@ -7167,10 +7175,10 @@
         <v>125</v>
       </c>
       <c r="E82" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="3:16">
@@ -7181,7 +7189,7 @@
         <v>166</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="3:16">
@@ -7192,7 +7200,7 @@
         <v>153</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="3:16">
@@ -7203,7 +7211,7 @@
         <v>166</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="3:16">
@@ -7214,7 +7222,7 @@
         <v>168</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="87" spans="3:16">
@@ -7231,7 +7239,7 @@
         <v>140</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="89" spans="3:16">
@@ -7242,7 +7250,7 @@
         <v>153</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="90" spans="3:16">
@@ -7253,7 +7261,7 @@
         <v>147</v>
       </c>
       <c r="P90" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="3:16">
@@ -7261,10 +7269,10 @@
         <v>125</v>
       </c>
       <c r="E91" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="3:16">
@@ -7275,7 +7283,7 @@
         <v>153</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="3:16">
@@ -7286,7 +7294,7 @@
         <v>148</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="3:16">
@@ -7297,7 +7305,7 @@
         <v>149</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="95" spans="3:16">
@@ -7305,7 +7313,7 @@
         <v>139</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="3:16">
@@ -7316,7 +7324,7 @@
         <v>153</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97" spans="3:16">
@@ -7327,7 +7335,7 @@
         <v>150</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="98" spans="3:16">
@@ -7335,7 +7343,7 @@
         <v>125</v>
       </c>
       <c r="E98" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="3:16">
@@ -7388,7 +7396,7 @@
         <v>125</v>
       </c>
       <c r="E105" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="3:16">
@@ -7441,7 +7449,7 @@
         <v>125</v>
       </c>
       <c r="E112" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="3:5">
@@ -7526,7 +7534,7 @@
         <v>125</v>
       </c>
       <c r="E123" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="3:5">
@@ -7563,7 +7571,7 @@
         <v>119</v>
       </c>
       <c r="E128" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="4:5">
@@ -7579,7 +7587,7 @@
         <v>125</v>
       </c>
       <c r="E130" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="131" spans="4:5">
@@ -7603,7 +7611,7 @@
         <v>172</v>
       </c>
       <c r="E133" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="4:5">
@@ -7619,7 +7627,7 @@
         <v>132</v>
       </c>
       <c r="E135" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -7633,8 +7641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7835B25-768A-4C19-B78A-A2A5B6A41EB5}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7694,7 +7702,7 @@
     </row>
     <row r="12" spans="1:5" ht="19.5">
       <c r="B12" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7705,7 +7713,7 @@
         <v>187</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="93.75">
@@ -7713,7 +7721,7 @@
         <v>184</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="93.75">
@@ -7721,7 +7729,7 @@
         <v>185</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7729,18 +7737,18 @@
         <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="D17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="75">
@@ -7748,7 +7756,7 @@
         <v>185</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -7759,7 +7767,7 @@
         <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="75">
@@ -7767,7 +7775,7 @@
         <v>184</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="112.5">
@@ -7775,7 +7783,7 @@
         <v>185</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -7786,13 +7794,16 @@
         <v>183</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="D23" t="s">
         <v>184</v>
       </c>
+      <c r="E23" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="24" spans="2:5" ht="56.25">
       <c r="D24" t="s">
@@ -7807,10 +7818,10 @@
         <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="56.25">
@@ -7818,7 +7829,7 @@
         <v>184</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="75">
@@ -7826,12 +7837,12 @@
         <v>185</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="19.5">
       <c r="B29" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -7839,10 +7850,10 @@
         <v>189</v>
       </c>
       <c r="D30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -7850,7 +7861,7 @@
         <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="262.5">
@@ -7858,7 +7869,7 @@
         <v>185</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -7866,10 +7877,10 @@
         <v>191</v>
       </c>
       <c r="D33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="131.25">
@@ -7877,7 +7888,7 @@
         <v>184</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="75">
@@ -7885,7 +7896,7 @@
         <v>185</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -7893,10 +7904,10 @@
         <v>189</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E36" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -7904,7 +7915,7 @@
         <v>184</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="131.25">
@@ -7912,12 +7923,12 @@
         <v>185</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="19.5">
       <c r="B40" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -7925,10 +7936,10 @@
         <v>189</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>346</v>
       </c>
       <c r="E41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="2:5">
@@ -7936,7 +7947,7 @@
         <v>184</v>
       </c>
       <c r="E42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="356.25">
@@ -7944,7 +7955,7 @@
         <v>185</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="2:5">
@@ -7952,10 +7963,10 @@
         <v>191</v>
       </c>
       <c r="D44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="225">
@@ -7963,7 +7974,7 @@
         <v>184</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="75">
@@ -7971,7 +7982,7 @@
         <v>185</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="2:5">
@@ -7979,10 +7990,10 @@
         <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -7990,7 +8001,7 @@
         <v>184</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="300">
@@ -7998,7 +8009,7 @@
         <v>185</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -8006,10 +8017,10 @@
         <v>189</v>
       </c>
       <c r="D50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="93.75">
@@ -8017,7 +8028,7 @@
         <v>184</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="356.25">
@@ -8025,12 +8036,12 @@
         <v>185</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="19.5">
       <c r="B54" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -8038,10 +8049,10 @@
         <v>188</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="93.75">
@@ -8049,7 +8060,7 @@
         <v>184</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="112.5">
@@ -8057,7 +8068,7 @@
         <v>185</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="2:5">
@@ -8068,7 +8079,7 @@
         <v>192</v>
       </c>
       <c r="E58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="56.25">
@@ -8076,7 +8087,7 @@
         <v>184</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="262.5">
@@ -8084,7 +8095,7 @@
         <v>185</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="2:5">
@@ -8092,10 +8103,10 @@
         <v>188</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="337.5">
@@ -8103,7 +8114,7 @@
         <v>184</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="393.75">
@@ -8111,7 +8122,7 @@
         <v>185</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="2:5">
@@ -8119,10 +8130,10 @@
         <v>189</v>
       </c>
       <c r="D64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="56.25">
@@ -8130,7 +8141,7 @@
         <v>184</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="409.5">
@@ -8138,12 +8149,12 @@
         <v>185</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="19.5">
       <c r="B68" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="2:5">
@@ -8151,10 +8162,10 @@
         <v>188</v>
       </c>
       <c r="D69" t="s">
+        <v>196</v>
+      </c>
+      <c r="E69" t="s">
         <v>195</v>
-      </c>
-      <c r="E69" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="93.75">
@@ -8162,7 +8173,7 @@
         <v>184</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="112.5">
@@ -8170,7 +8181,7 @@
         <v>185</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="2:5">
@@ -8178,10 +8189,10 @@
         <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E72" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="75">
@@ -8189,7 +8200,7 @@
         <v>184</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="356.25">
@@ -8197,12 +8208,12 @@
         <v>185</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="19.5">
       <c r="B76" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="2:5">
@@ -8210,10 +8221,10 @@
         <v>188</v>
       </c>
       <c r="D77" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="131.25">
@@ -8221,7 +8232,7 @@
         <v>184</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="168.75">
@@ -8229,7 +8240,7 @@
         <v>185</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="2:5">
@@ -8237,10 +8248,10 @@
         <v>189</v>
       </c>
       <c r="D80" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E80" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="3:5" ht="75">
@@ -8248,7 +8259,7 @@
         <v>184</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="3:5" ht="409.5">
@@ -8256,7 +8267,7 @@
         <v>185</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="3:5">
@@ -8264,10 +8275,10 @@
         <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="3:5">
@@ -8275,7 +8286,7 @@
         <v>184</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="3:5" ht="187.5">
@@ -8283,7 +8294,7 @@
         <v>185</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" spans="3:5">
@@ -8291,10 +8302,10 @@
         <v>191</v>
       </c>
       <c r="D86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E86" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="3:5" ht="131.25">
@@ -8302,7 +8313,7 @@
         <v>184</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="3:5" ht="168.75">
@@ -8310,18 +8321,18 @@
         <v>185</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="3:5">
       <c r="C89" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D89" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E89" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="3:5">
@@ -8329,7 +8340,7 @@
         <v>184</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="3:5" ht="93.75">
@@ -8337,7 +8348,7 @@
         <v>185</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/基本設計.xlsx
+++ b/基本設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuyaK\Programs\tamotsuApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A773F2D3-2780-4C50-BD70-EFA5877F852A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE3CD5C-D087-4153-A9BF-A5DC6A687118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{D88CB032-6C85-43BC-8203-54BE0CB90655}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D88CB032-6C85-43BC-8203-54BE0CB90655}"/>
   </bookViews>
   <sheets>
     <sheet name="システム概要" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="349">
   <si>
     <t>1. システム概要</t>
   </si>
@@ -1450,12 +1450,6 @@
     <t>String</t>
   </si>
   <si>
-    <t>グローバルセカンダリインデックス1のパーティションキー</t>
-  </si>
-  <si>
-    <t>グローバルセカンダリインデックス1のソートキー</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -1812,11 +1806,9 @@
   </si>
   <si>
     <t>GSI2PK</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>GSI2SK</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -2133,14 +2125,6 @@
   </si>
   <si>
     <t>/chat/send</t>
-  </si>
-  <si>
-    <t>GSI3PK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GSI3SK</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>NUTRITIONIST#&lt;nutritionist_id&gt;#STATUS#&lt;status&gt;</t>
@@ -2880,112 +2864,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="9.6"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>グロ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ーバルセカンダリインデックス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>のパ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ーティションキー</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>グロ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ーバルセカンダリインデックス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>のソ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ートキー</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="12"/>
         <color theme="1"/>
@@ -5207,12 +5085,178 @@
     <t>/nutritionists/profile</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TypeSK</t>
+  </si>
+  <si>
+    <t>TypeSK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TypePK</t>
+  </si>
+  <si>
+    <t>TypePK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>タイプのパ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ーティションキー</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>タイプのソ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ートキー</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>グロ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ーバルセカンダリインデックス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>のパ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ーティションキー</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>グロ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ーバルセカンダリインデックス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>のソ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ートキー</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5399,13 +5443,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9.6"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -6024,7 +6061,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C9" sqref="C9:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6138,7 +6175,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6529,8 +6566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D4FE9-8BA9-4D91-B1AE-9CFF14E398B8}">
   <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6557,207 +6594,207 @@
     </row>
     <row r="4" spans="1:16">
       <c r="P4" s="5" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="P5" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="P6" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="P7" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="P8" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="P9" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="P10" s="6" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="P11" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="P12" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="P13" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="P14" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="P15" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="P16" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="16:16">
       <c r="P17" s="6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="16:16">
       <c r="P18" s="6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="16:16">
       <c r="P19" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="16:16">
       <c r="P20" s="6" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="16:16">
       <c r="P21" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="16:16">
       <c r="P22" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="16:16">
       <c r="P23" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="16:16">
       <c r="P24" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="16:16">
       <c r="P25" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="16:16">
       <c r="P26" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="16:16">
       <c r="P27" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="16:16">
       <c r="P28" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="16:16">
       <c r="P29" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="16:16">
       <c r="P30" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="16:16">
       <c r="P31" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="16:16">
       <c r="P32" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="2:16">
       <c r="P33" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="2:16">
       <c r="P34" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="2:16">
       <c r="P35" s="6" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="2:16">
       <c r="P36" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="2:16">
       <c r="P37" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="2:16">
       <c r="P38" s="6" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="2:16">
       <c r="P39" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="2:16">
       <c r="P40" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="2:16">
       <c r="P41" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="2:16">
       <c r="P42" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="2:16">
       <c r="P43" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="2:16">
       <c r="P44" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="2:16">
@@ -6765,7 +6802,7 @@
         <v>14</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="2:16">
@@ -6773,12 +6810,12 @@
         <v>57</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="19.5" thickBot="1">
       <c r="P47" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="19.5" thickBot="1">
@@ -6792,7 +6829,7 @@
         <v>118</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="19.5" thickBot="1">
@@ -6806,7 +6843,7 @@
         <v>122</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="19.5" thickBot="1">
@@ -6820,140 +6857,140 @@
         <v>124</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="19.5" thickBot="1">
       <c r="C51" s="8" t="s">
-        <v>125</v>
+        <v>344</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>128</v>
+      <c r="E51" s="14" t="s">
+        <v>345</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="19.5" thickBot="1">
       <c r="C52" s="8" t="s">
-        <v>126</v>
+        <v>342</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>129</v>
+      <c r="E52" s="14" t="s">
+        <v>346</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="19.5" thickBot="1">
       <c r="C53" s="8" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>174</v>
+        <v>347</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="19.5" thickBot="1">
       <c r="C54" s="8" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>173</v>
+        <v>348</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="19.5" thickBot="1">
       <c r="C55" s="8" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="19.5" thickBot="1">
       <c r="C56" s="8" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="2:16" ht="29.25" thickBot="1">
       <c r="C57" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="19.5" thickBot="1">
       <c r="C58" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="P58" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="2:16">
       <c r="P59" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="2:16">
       <c r="B60" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="2:16" ht="19.5">
       <c r="C61" s="17" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="2:16">
@@ -6961,10 +6998,10 @@
         <v>119</v>
       </c>
       <c r="E62" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="2:16">
@@ -6972,84 +7009,84 @@
         <v>123</v>
       </c>
       <c r="E63" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="2:16">
       <c r="D64" s="7" t="s">
-        <v>125</v>
+        <v>343</v>
       </c>
       <c r="E64" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="3:16">
       <c r="D65" s="7" t="s">
-        <v>126</v>
+        <v>341</v>
       </c>
       <c r="E65" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="3:16">
       <c r="D66" s="7" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="E66" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="3:16">
       <c r="D67" s="7" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="3:16">
       <c r="D68" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="69" spans="3:16">
       <c r="D69" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="3:16">
       <c r="C70" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" spans="3:16">
@@ -7057,10 +7094,10 @@
         <v>119</v>
       </c>
       <c r="E71" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="3:16">
@@ -7068,84 +7105,84 @@
         <v>123</v>
       </c>
       <c r="E72" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="3:16">
       <c r="D73" s="7" t="s">
-        <v>125</v>
+        <v>343</v>
       </c>
       <c r="E73" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="3:16">
       <c r="D74" s="7" t="s">
-        <v>126</v>
+        <v>341</v>
       </c>
       <c r="E74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="3:16">
       <c r="D75" s="7" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="E75" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="76" spans="3:16">
       <c r="D76" s="7" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="E76" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P76" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" spans="3:16">
       <c r="D77" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="3:16">
       <c r="D78" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E78" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="3:16">
       <c r="C79" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P79" s="6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="3:16">
@@ -7153,10 +7190,10 @@
         <v>119</v>
       </c>
       <c r="E80" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="3:16">
@@ -7164,82 +7201,82 @@
         <v>123</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="3:16">
       <c r="D82" s="7" t="s">
-        <v>125</v>
+        <v>343</v>
       </c>
       <c r="E82" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="3:16">
       <c r="D83" s="7" t="s">
-        <v>126</v>
+        <v>341</v>
       </c>
       <c r="E83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="3:16">
       <c r="D84" s="7" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="3:16">
       <c r="D85" s="7" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="E85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86" spans="3:16">
       <c r="D86" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="3:16">
       <c r="D87" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P87" s="19"/>
     </row>
     <row r="88" spans="3:16">
       <c r="C88" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="3:16">
@@ -7247,10 +7284,10 @@
         <v>119</v>
       </c>
       <c r="E89" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="3:16">
@@ -7258,62 +7295,62 @@
         <v>123</v>
       </c>
       <c r="E90" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P90" s="6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="3:16">
       <c r="D91" s="7" t="s">
-        <v>125</v>
+        <v>343</v>
       </c>
       <c r="E91" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="92" spans="3:16">
       <c r="D92" s="7" t="s">
-        <v>126</v>
+        <v>341</v>
       </c>
       <c r="E92" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="3:16">
       <c r="D93" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E93" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="3:16">
       <c r="D94" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E94" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="95" spans="3:16">
       <c r="C95" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="3:16">
@@ -7321,10 +7358,10 @@
         <v>119</v>
       </c>
       <c r="E96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="3:16">
@@ -7332,47 +7369,47 @@
         <v>123</v>
       </c>
       <c r="E97" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="98" spans="3:16">
       <c r="D98" s="7" t="s">
-        <v>125</v>
+        <v>343</v>
       </c>
       <c r="E98" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="3:16">
       <c r="D99" s="7" t="s">
-        <v>126</v>
+        <v>341</v>
       </c>
       <c r="E99" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="3:16">
       <c r="D100" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E100" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="3:16">
       <c r="D101" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E101" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="3:16">
       <c r="C102" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="3:16">
@@ -7380,7 +7417,7 @@
         <v>119</v>
       </c>
       <c r="E103" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="3:16">
@@ -7388,44 +7425,44 @@
         <v>123</v>
       </c>
       <c r="E104" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="3:16">
       <c r="D105" s="7" t="s">
-        <v>125</v>
+        <v>343</v>
       </c>
       <c r="E105" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="3:16">
       <c r="D106" s="7" t="s">
-        <v>126</v>
+        <v>341</v>
       </c>
       <c r="E106" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="3:16">
       <c r="D107" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E107" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="3:16">
       <c r="D108" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E108" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="3:16">
       <c r="C109" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="3:16">
@@ -7433,7 +7470,7 @@
         <v>119</v>
       </c>
       <c r="E110" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" spans="3:16">
@@ -7441,76 +7478,76 @@
         <v>123</v>
       </c>
       <c r="E111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="3:16">
       <c r="D112" s="7" t="s">
-        <v>125</v>
+        <v>343</v>
       </c>
       <c r="E112" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="3:5">
       <c r="D113" s="7" t="s">
-        <v>126</v>
+        <v>341</v>
       </c>
       <c r="E113" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="3:5">
       <c r="D114" s="7" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="E114" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="3:5">
       <c r="D115" s="7" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="E115" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="3:5">
       <c r="D116" s="7" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="E116" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="3:5">
       <c r="D117" s="7" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="E117" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="3:5">
       <c r="D118" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E118" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="3:5">
       <c r="D119" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E119" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="3:5">
       <c r="C120" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="3:5">
@@ -7518,7 +7555,7 @@
         <v>119</v>
       </c>
       <c r="E121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="3:5">
@@ -7526,44 +7563,44 @@
         <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="3:5">
       <c r="D123" s="7" t="s">
-        <v>125</v>
+        <v>343</v>
       </c>
       <c r="E123" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="124" spans="3:5">
       <c r="D124" s="7" t="s">
-        <v>126</v>
+        <v>341</v>
       </c>
       <c r="E124" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="3:5">
       <c r="D125" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E125" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126" spans="3:5">
       <c r="D126" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E126" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="127" spans="3:5">
       <c r="C127" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="3:5">
@@ -7571,7 +7608,7 @@
         <v>119</v>
       </c>
       <c r="E128" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129" spans="4:5">
@@ -7579,55 +7616,55 @@
         <v>123</v>
       </c>
       <c r="E129" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="4:5">
       <c r="D130" s="7" t="s">
-        <v>125</v>
+        <v>343</v>
       </c>
       <c r="E130" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="131" spans="4:5">
       <c r="D131" s="7" t="s">
-        <v>126</v>
+        <v>341</v>
       </c>
       <c r="E131" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132" spans="4:5">
       <c r="D132" s="7" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="E132" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="4:5">
       <c r="D133" s="7" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="E133" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="4:5">
       <c r="D134" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E134" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="4:5">
       <c r="D135" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E135" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -7641,8 +7678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7835B25-768A-4C19-B78A-A2A5B6A41EB5}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7654,7 +7691,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7664,7 +7701,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7702,653 +7739,653 @@
     </row>
     <row r="12" spans="1:5" ht="19.5">
       <c r="B12" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="93.75">
       <c r="D14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="93.75">
       <c r="D15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="C16" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E16" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="D17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="75">
       <c r="D18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="C19" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="75">
       <c r="D20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="112.5">
       <c r="D21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="C22" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E22" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="D23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="56.25">
       <c r="D24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="C25" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="56.25">
       <c r="D26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="75">
       <c r="D27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="19.5">
       <c r="B29" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="C30" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E30" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="D31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="262.5">
       <c r="D32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="C33" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E33" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="131.25">
       <c r="D34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="75">
       <c r="D35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="C36" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="D37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="131.25">
       <c r="D38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="19.5">
       <c r="B40" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="C41" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E41" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="D42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="356.25">
       <c r="D43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="C44" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D44" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="225">
       <c r="D45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="75">
       <c r="D46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="C47" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D47" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="D48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="300">
       <c r="D49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="C50" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D50" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E50" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="93.75">
       <c r="D51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="356.25">
       <c r="D52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="19.5">
       <c r="B54" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="C55" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E55" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="93.75">
       <c r="D56" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="112.5">
       <c r="D57" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="C58" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E58" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="56.25">
       <c r="D59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="262.5">
       <c r="D60" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="C61" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D61" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E61" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="337.5">
       <c r="D62" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="393.75">
       <c r="D63" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="C64" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E64" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="56.25">
       <c r="D65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="409.5">
       <c r="D66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="19.5">
       <c r="B68" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="C69" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E69" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="93.75">
       <c r="D70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="112.5">
       <c r="D71" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="C72" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D72" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E72" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="75">
       <c r="D73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="356.25">
       <c r="D74" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="19.5">
       <c r="B76" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="2:5">
       <c r="C77" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D77" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E77" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="131.25">
       <c r="D78" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="168.75">
       <c r="D79" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="2:5">
       <c r="C80" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D80" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E80" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="3:5" ht="75">
       <c r="D81" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" spans="3:5" ht="409.5">
       <c r="D82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="83" spans="3:5">
       <c r="C83" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D83" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E83" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="3:5">
       <c r="D84" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="3:5" ht="187.5">
       <c r="D85" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="3:5">
       <c r="C86" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D86" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E86" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="3:5" ht="131.25">
       <c r="D87" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="3:5" ht="168.75">
       <c r="D88" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="3:5">
       <c r="C89" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D89" t="s">
+        <v>225</v>
+      </c>
+      <c r="E89" t="s">
         <v>229</v>
-      </c>
-      <c r="E89" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="90" spans="3:5">
       <c r="D90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="3:5" ht="93.75">
       <c r="D91" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -8369,7 +8406,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8423,7 +8460,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8477,7 +8514,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8539,7 +8576,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/基本設計.xlsx
+++ b/基本設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuyaK\Programs\tamotsuApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE3CD5C-D087-4153-A9BF-A5DC6A687118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394FAF67-1EFE-49D9-9903-7172755ABAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D88CB032-6C85-43BC-8203-54BE0CB90655}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="365">
   <si>
     <t>1. システム概要</t>
   </si>
@@ -1808,7 +1808,15 @@
     <t>GSI2PK</t>
   </si>
   <si>
+    <t>GSI2PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>GSI2SK</t>
+  </si>
+  <si>
+    <t>GSI2SK</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -5146,6 +5154,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>GSI1PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.6"/>
@@ -5251,12 +5263,57 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ユーザー一時保存 (TEMP_USER)</t>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMAIL#&lt;email&gt;</t>
+  </si>
+  <si>
+    <t>SK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>METADATA#&lt;timestamp&gt;</t>
+  </si>
+  <si>
+    <t>TYPE#TEMP_USER</t>
+  </si>
+  <si>
+    <t>STATUS#UNVERIFIED</t>
+  </si>
+  <si>
+    <t>GSI1SK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATED#&lt;timestamp&gt;</t>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEMP_USER</t>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{email,user_type,verification_code,created_at}</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5466,6 +5523,31 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5541,7 +5623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5600,6 +5682,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6175,7 +6266,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6564,10 +6655,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D4FE9-8BA9-4D91-B1AE-9CFF14E398B8}">
-  <dimension ref="A1:P135"/>
+  <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6594,207 +6685,207 @@
     </row>
     <row r="4" spans="1:16">
       <c r="P4" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="P5" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="P6" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="P7" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="P8" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="P9" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="P10" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="P11" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="P12" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="P13" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="P14" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="P15" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="P16" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="16:16">
       <c r="P17" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="16:16">
       <c r="P18" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="16:16">
       <c r="P19" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="16:16">
       <c r="P20" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="16:16">
       <c r="P21" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="16:16">
       <c r="P22" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="16:16">
       <c r="P23" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="16:16">
       <c r="P24" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="16:16">
       <c r="P25" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="16:16">
       <c r="P26" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="16:16">
       <c r="P27" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="16:16">
       <c r="P28" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="16:16">
       <c r="P29" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="16:16">
       <c r="P30" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="16:16">
       <c r="P31" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="16:16">
       <c r="P32" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="2:16">
       <c r="P33" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="2:16">
       <c r="P34" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="2:16">
       <c r="P35" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="2:16">
       <c r="P36" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="2:16">
       <c r="P37" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="2:16">
       <c r="P38" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="2:16">
       <c r="P39" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="2:16">
       <c r="P40" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="2:16">
       <c r="P41" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="2:16">
       <c r="P42" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="2:16">
       <c r="P43" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="2:16">
       <c r="P44" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="2:16">
@@ -6802,7 +6893,7 @@
         <v>14</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="2:16">
@@ -6810,12 +6901,12 @@
         <v>57</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="19.5" thickBot="1">
       <c r="P47" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="19.5" thickBot="1">
@@ -6829,7 +6920,7 @@
         <v>118</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="19.5" thickBot="1">
@@ -6843,7 +6934,7 @@
         <v>122</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="19.5" thickBot="1">
@@ -6857,35 +6948,35 @@
         <v>124</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="19.5" thickBot="1">
       <c r="C51" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="19.5" thickBot="1">
       <c r="C52" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="19.5" thickBot="1">
@@ -6896,10 +6987,10 @@
         <v>127</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="19.5" thickBot="1">
@@ -6910,10 +7001,10 @@
         <v>127</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="19.5" thickBot="1">
@@ -6924,24 +7015,24 @@
         <v>127</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="19.5" thickBot="1">
       <c r="C56" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="2:16" ht="29.25" thickBot="1">
@@ -6955,7 +7046,7 @@
         <v>129</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="19.5" thickBot="1">
@@ -6969,28 +7060,28 @@
         <v>132</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="2:16">
       <c r="P59" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" spans="2:16">
       <c r="B60" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="2:16" ht="19.5">
       <c r="C61" s="17" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="2:16">
@@ -7001,7 +7092,7 @@
         <v>151</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="2:16">
@@ -7009,32 +7100,32 @@
         <v>123</v>
       </c>
       <c r="E63" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="2:16">
       <c r="D64" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E64" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="3:16">
       <c r="D65" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E65" t="s">
         <v>151</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="3:16">
@@ -7045,7 +7136,7 @@
         <v>140</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="3:16">
@@ -7056,7 +7147,7 @@
         <v>151</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="3:16">
@@ -7067,7 +7158,7 @@
         <v>142</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="3:16">
@@ -7078,7 +7169,7 @@
         <v>143</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="3:16">
@@ -7086,7 +7177,7 @@
         <v>139</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="3:16">
@@ -7097,7 +7188,7 @@
         <v>164</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="3:16">
@@ -7105,32 +7196,32 @@
         <v>123</v>
       </c>
       <c r="E72" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="3:16">
       <c r="D73" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E73" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="3:16">
       <c r="D74" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E74" t="s">
         <v>164</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="3:16">
@@ -7141,7 +7232,7 @@
         <v>140</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="3:16">
@@ -7152,7 +7243,7 @@
         <v>164</v>
       </c>
       <c r="P76" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="3:16">
@@ -7163,7 +7254,7 @@
         <v>144</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="3:16">
@@ -7174,7 +7265,7 @@
         <v>168</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="3:16">
@@ -7182,7 +7273,7 @@
         <v>165</v>
       </c>
       <c r="P79" s="6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="3:16">
@@ -7193,7 +7284,7 @@
         <v>164</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="81" spans="3:16">
@@ -7204,29 +7295,29 @@
         <v>151</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="3:16">
       <c r="D82" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E82" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="3:16">
       <c r="D83" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E83" t="s">
         <v>164</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="3:16">
@@ -7237,7 +7328,7 @@
         <v>151</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="3:16">
@@ -7248,7 +7339,7 @@
         <v>164</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="3:16">
@@ -7259,7 +7350,7 @@
         <v>166</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87" spans="3:16">
@@ -7276,7 +7367,7 @@
         <v>138</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="3:16">
@@ -7287,7 +7378,7 @@
         <v>151</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90" spans="3:16">
@@ -7298,29 +7389,29 @@
         <v>145</v>
       </c>
       <c r="P90" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="3:16">
       <c r="D91" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E91" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="3:16">
       <c r="D92" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E92" t="s">
         <v>151</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="3:16">
@@ -7331,7 +7422,7 @@
         <v>146</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="3:16">
@@ -7342,7 +7433,7 @@
         <v>147</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="3:16">
@@ -7350,7 +7441,7 @@
         <v>137</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="3:16">
@@ -7361,7 +7452,7 @@
         <v>151</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="3:16">
@@ -7372,20 +7463,20 @@
         <v>148</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="3:16">
       <c r="D98" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E98" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="3:16">
       <c r="D99" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E99" t="s">
         <v>151</v>
@@ -7430,15 +7521,15 @@
     </row>
     <row r="105" spans="3:16">
       <c r="D105" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E105" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="3:16">
       <c r="D106" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E106" t="s">
         <v>151</v>
@@ -7483,15 +7574,15 @@
     </row>
     <row r="112" spans="3:16">
       <c r="D112" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E112" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="3:5">
       <c r="D113" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E113" t="s">
         <v>153</v>
@@ -7515,7 +7606,7 @@
     </row>
     <row r="116" spans="3:5">
       <c r="D116" s="7" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="E116" t="s">
         <v>164</v>
@@ -7523,7 +7614,7 @@
     </row>
     <row r="117" spans="3:5">
       <c r="D117" s="7" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="E117" t="s">
         <v>158</v>
@@ -7568,15 +7659,15 @@
     </row>
     <row r="123" spans="3:5">
       <c r="D123" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E123" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="124" spans="3:5">
       <c r="D124" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E124" t="s">
         <v>153</v>
@@ -7608,10 +7699,10 @@
         <v>119</v>
       </c>
       <c r="E128" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="129" spans="4:5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5">
       <c r="D129" s="7" t="s">
         <v>123</v>
       </c>
@@ -7619,23 +7710,23 @@
         <v>141</v>
       </c>
     </row>
-    <row r="130" spans="4:5">
+    <row r="130" spans="3:5">
       <c r="D130" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E130" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5">
+      <c r="D131" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="E130" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="131" spans="4:5">
-      <c r="D131" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="E131" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="4:5">
+    <row r="132" spans="3:5">
       <c r="D132" s="7" t="s">
         <v>125</v>
       </c>
@@ -7643,15 +7734,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="133" spans="4:5">
+    <row r="133" spans="3:5">
       <c r="D133" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E133" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="134" spans="4:5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5">
       <c r="D134" s="7" t="s">
         <v>128</v>
       </c>
@@ -7659,12 +7750,81 @@
         <v>152</v>
       </c>
     </row>
-    <row r="135" spans="4:5">
+    <row r="135" spans="3:5">
       <c r="D135" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E135" t="s">
-        <v>197</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5" ht="19.5">
+      <c r="C136" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5" ht="19.5">
+      <c r="D137" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="E137" s="22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" ht="19.5">
+      <c r="D138" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="E138" s="22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="139" spans="3:5" ht="19.5">
+      <c r="D139" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="E139" s="22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5" ht="19.5">
+      <c r="D140" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E140" s="22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5" ht="19.5">
+      <c r="D141" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E141" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5" ht="19.5">
+      <c r="D142" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="143" spans="3:5" ht="19.5">
+      <c r="D143" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="E143" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="144" spans="3:5" ht="19.5">
+      <c r="D144" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="E144" s="22" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -7691,7 +7851,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7701,7 +7861,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7739,653 +7899,653 @@
     </row>
     <row r="12" spans="1:5" ht="19.5">
       <c r="B12" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="93.75">
       <c r="D14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="93.75">
       <c r="D15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="C16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="75">
       <c r="D18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="C19" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="75">
       <c r="D20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="112.5">
       <c r="D21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="C22" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="D23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="56.25">
       <c r="D24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="C25" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E25" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="56.25">
       <c r="D26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="75">
       <c r="D27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="19.5">
       <c r="B29" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="C30" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D30" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="D31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="262.5">
       <c r="D32" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="C33" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="131.25">
       <c r="D34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="75">
       <c r="D35" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="C36" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D36" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E36" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="D37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="131.25">
       <c r="D38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="19.5">
       <c r="B40" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="C41" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D41" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E41" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="D42" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E42" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="356.25">
       <c r="D43" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="C44" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="225">
       <c r="D45" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="75">
       <c r="D46" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="C47" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E47" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="D48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="300">
       <c r="D49" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="C50" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="93.75">
       <c r="D51" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="356.25">
       <c r="D52" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="19.5">
       <c r="B54" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="C55" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E55" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="93.75">
       <c r="D56" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="112.5">
       <c r="D57" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="C58" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D58" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E58" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="56.25">
       <c r="D59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="262.5">
       <c r="D60" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="C61" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D61" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E61" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="337.5">
       <c r="D62" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="393.75">
       <c r="D63" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="C64" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E64" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="56.25">
       <c r="D65" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="409.5">
       <c r="D66" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="19.5">
       <c r="B68" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="C69" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D69" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E69" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="93.75">
       <c r="D70" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="112.5">
       <c r="D71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="C72" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E72" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="75">
       <c r="D73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="356.25">
       <c r="D74" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="19.5">
       <c r="B76" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="2:5">
       <c r="C77" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D77" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E77" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="131.25">
       <c r="D78" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="168.75">
       <c r="D79" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="2:5">
       <c r="C80" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D80" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E80" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="3:5" ht="75">
       <c r="D81" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="3:5" ht="409.5">
       <c r="D82" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="3:5">
       <c r="C83" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E83" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="3:5">
       <c r="D84" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="3:5" ht="187.5">
       <c r="D85" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="3:5">
       <c r="C86" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D86" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E86" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="3:5" ht="131.25">
       <c r="D87" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="3:5" ht="168.75">
       <c r="D88" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="3:5">
       <c r="C89" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D89" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E89" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="3:5">
       <c r="D90" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="3:5" ht="93.75">
       <c r="D91" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -8406,7 +8566,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8460,7 +8620,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8514,7 +8674,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8576,7 +8736,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/基本設計.xlsx
+++ b/基本設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuyaK\Programs\tamotsuApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394FAF67-1EFE-49D9-9903-7172755ABAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAEBB03-280C-455C-BD3D-8B52D18B6523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D88CB032-6C85-43BC-8203-54BE0CB90655}"/>
+    <workbookView xWindow="2715" yWindow="2280" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{D88CB032-6C85-43BC-8203-54BE0CB90655}"/>
   </bookViews>
   <sheets>
     <sheet name="システム概要" sheetId="1" r:id="rId1"/>
@@ -2414,14 +2414,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{
-  "email": "user@example.com",
-  "password": "securePassword123",
-  "userType": "user"
-}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>?verificationCode=ABC123DEF456&amp;email=user@example.com</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5306,6 +5298,13 @@
   </si>
   <si>
     <t>{email,user_type,verification_code,created_at}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{
+  "email": "user@example.com",
+  "userType": "user"
+}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5623,7 +5622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5677,9 +5676,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -6294,8 +6290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440B250A-6EF2-4E3E-A02B-E3EC75CDFFED}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6657,8 +6653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D4FE9-8BA9-4D91-B1AE-9CFF14E398B8}">
   <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6685,207 +6681,207 @@
     </row>
     <row r="4" spans="1:16">
       <c r="P4" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="P5" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="P6" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="P7" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="P8" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="P9" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="P10" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="P11" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="P12" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="P13" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="P14" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="P15" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="P16" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="16:16">
       <c r="P17" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="16:16">
       <c r="P18" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="16:16">
       <c r="P19" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="16:16">
       <c r="P20" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="16:16">
       <c r="P21" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="16:16">
       <c r="P22" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="16:16">
       <c r="P23" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="16:16">
       <c r="P24" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="16:16">
       <c r="P25" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="16:16">
       <c r="P26" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="16:16">
       <c r="P27" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="16:16">
       <c r="P28" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="16:16">
       <c r="P29" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="16:16">
       <c r="P30" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="16:16">
       <c r="P31" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="16:16">
       <c r="P32" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="2:16">
       <c r="P33" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="2:16">
       <c r="P34" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="2:16">
       <c r="P35" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="2:16">
       <c r="P36" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="2:16">
       <c r="P37" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="2:16">
       <c r="P38" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="2:16">
       <c r="P39" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="2:16">
       <c r="P40" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="2:16">
       <c r="P41" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="2:16">
       <c r="P42" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="2:16">
       <c r="P43" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="2:16">
       <c r="P44" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="2:16">
@@ -6893,7 +6889,7 @@
         <v>14</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="2:16">
@@ -6901,12 +6897,12 @@
         <v>57</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="19.5" thickBot="1">
       <c r="P47" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="19.5" thickBot="1">
@@ -6920,7 +6916,7 @@
         <v>118</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="19.5" thickBot="1">
@@ -6934,7 +6930,7 @@
         <v>122</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="19.5" thickBot="1">
@@ -6948,35 +6944,35 @@
         <v>124</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="19.5" thickBot="1">
       <c r="C51" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="19.5" thickBot="1">
       <c r="C52" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="19.5" thickBot="1">
@@ -6987,10 +6983,10 @@
         <v>127</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="19.5" thickBot="1">
@@ -7001,10 +6997,10 @@
         <v>127</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="19.5" thickBot="1">
@@ -7018,7 +7014,7 @@
         <v>174</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="19.5" thickBot="1">
@@ -7032,7 +7028,7 @@
         <v>173</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="2:16" ht="29.25" thickBot="1">
@@ -7046,7 +7042,7 @@
         <v>129</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="19.5" thickBot="1">
@@ -7060,28 +7056,28 @@
         <v>132</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="2:16">
       <c r="P59" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="2:16">
       <c r="B60" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="2:16" ht="19.5">
       <c r="C61" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="2:16">
@@ -7092,7 +7088,7 @@
         <v>151</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="2:16">
@@ -7103,29 +7099,29 @@
         <v>200</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="2:16">
       <c r="D64" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="3:16">
       <c r="D65" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E65" t="s">
         <v>151</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="3:16">
@@ -7136,7 +7132,7 @@
         <v>140</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="3:16">
@@ -7147,7 +7143,7 @@
         <v>151</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="3:16">
@@ -7158,7 +7154,7 @@
         <v>142</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="3:16">
@@ -7169,7 +7165,7 @@
         <v>143</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="3:16">
@@ -7177,7 +7173,7 @@
         <v>139</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="3:16">
@@ -7188,7 +7184,7 @@
         <v>164</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="3:16">
@@ -7199,29 +7195,29 @@
         <v>201</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="3:16">
       <c r="D73" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="3:16">
       <c r="D74" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E74" t="s">
         <v>164</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="3:16">
@@ -7232,7 +7228,7 @@
         <v>140</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="3:16">
@@ -7243,7 +7239,7 @@
         <v>164</v>
       </c>
       <c r="P76" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="3:16">
@@ -7254,7 +7250,7 @@
         <v>144</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="3:16">
@@ -7265,7 +7261,7 @@
         <v>168</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="3:16">
@@ -7273,7 +7269,7 @@
         <v>165</v>
       </c>
       <c r="P79" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="3:16">
@@ -7284,7 +7280,7 @@
         <v>164</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="3:16">
@@ -7295,29 +7291,29 @@
         <v>151</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="3:16">
       <c r="D82" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E82" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="3:16">
       <c r="D83" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E83" t="s">
         <v>164</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="3:16">
@@ -7328,7 +7324,7 @@
         <v>151</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="85" spans="3:16">
@@ -7339,7 +7335,7 @@
         <v>164</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="3:16">
@@ -7350,7 +7346,7 @@
         <v>166</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="3:16">
@@ -7360,14 +7356,14 @@
       <c r="E87" t="s">
         <v>167</v>
       </c>
-      <c r="P87" s="19"/>
+      <c r="P87" s="18"/>
     </row>
     <row r="88" spans="3:16">
       <c r="C88" s="12" t="s">
         <v>138</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="3:16">
@@ -7378,7 +7374,7 @@
         <v>151</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="3:16">
@@ -7389,29 +7385,29 @@
         <v>145</v>
       </c>
       <c r="P90" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="91" spans="3:16">
       <c r="D91" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E91" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="3:16">
       <c r="D92" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E92" t="s">
         <v>151</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="3:16">
@@ -7422,7 +7418,7 @@
         <v>146</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="3:16">
@@ -7433,7 +7429,7 @@
         <v>147</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="3:16">
@@ -7441,7 +7437,7 @@
         <v>137</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="3:16">
@@ -7452,7 +7448,7 @@
         <v>151</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="3:16">
@@ -7463,20 +7459,20 @@
         <v>148</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="98" spans="3:16">
       <c r="D98" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="99" spans="3:16">
       <c r="D99" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E99" t="s">
         <v>151</v>
@@ -7521,15 +7517,15 @@
     </row>
     <row r="105" spans="3:16">
       <c r="D105" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E105" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="3:16">
       <c r="D106" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E106" t="s">
         <v>151</v>
@@ -7574,15 +7570,15 @@
     </row>
     <row r="112" spans="3:16">
       <c r="D112" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="113" spans="3:5">
       <c r="D113" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E113" t="s">
         <v>153</v>
@@ -7659,15 +7655,15 @@
     </row>
     <row r="123" spans="3:5">
       <c r="D123" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E123" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="124" spans="3:5">
       <c r="D124" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E124" t="s">
         <v>153</v>
@@ -7712,15 +7708,15 @@
     </row>
     <row r="130" spans="3:5">
       <c r="D130" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E130" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="131" spans="3:5">
       <c r="D131" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E131" t="s">
         <v>164</v>
@@ -7759,72 +7755,72 @@
       </c>
     </row>
     <row r="136" spans="3:5" ht="19.5">
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5" ht="19.5">
+      <c r="D137" s="20" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="137" spans="3:5" ht="19.5">
-      <c r="D137" s="21" t="s">
+      <c r="E137" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="E137" s="22" t="s">
+    </row>
+    <row r="138" spans="3:5" ht="19.5">
+      <c r="D138" s="21" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="138" spans="3:5" ht="19.5">
-      <c r="D138" s="22" t="s">
+      <c r="E138" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="E138" s="22" t="s">
+    </row>
+    <row r="139" spans="3:5" ht="19.5">
+      <c r="D139" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="E139" s="21" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="139" spans="3:5" ht="19.5">
-      <c r="D139" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="E139" s="22" t="s">
+    <row r="140" spans="3:5" ht="19.5">
+      <c r="D140" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5" ht="19.5">
+      <c r="D141" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="E141" s="21" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="140" spans="3:5" ht="19.5">
-      <c r="D140" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="E140" s="22" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="141" spans="3:5" ht="19.5">
-      <c r="D141" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="E141" s="22" t="s">
+    <row r="142" spans="3:5" ht="19.5">
+      <c r="D142" s="21" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="142" spans="3:5" ht="19.5">
-      <c r="D142" s="22" t="s">
+      <c r="E142" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="E142" s="22" t="s">
+    </row>
+    <row r="143" spans="3:5" ht="19.5">
+      <c r="D143" s="21" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="143" spans="3:5" ht="19.5">
-      <c r="D143" s="22" t="s">
+      <c r="E143" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="E143" s="22" t="s">
+    </row>
+    <row r="144" spans="3:5" ht="19.5">
+      <c r="D144" s="21" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="144" spans="3:5" ht="19.5">
-      <c r="D144" s="22" t="s">
+      <c r="E144" s="21" t="s">
         <v>363</v>
-      </c>
-      <c r="E144" s="22" t="s">
-        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -7838,8 +7834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7835B25-768A-4C19-B78A-A2A5B6A41EB5}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7913,12 +7909,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="93.75">
+    <row r="14" spans="1:5" ht="75">
       <c r="D14" t="s">
         <v>184</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>242</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="93.75">
@@ -7926,7 +7922,7 @@
         <v>185</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7944,8 +7940,8 @@
       <c r="D17" t="s">
         <v>240</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>243</v>
+      <c r="E17" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="75">
@@ -7972,7 +7968,7 @@
         <v>184</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="112.5">
@@ -7980,7 +7976,7 @@
         <v>185</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -7999,7 +7995,7 @@
         <v>184</v>
       </c>
       <c r="E23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="56.25">
@@ -8026,7 +8022,7 @@
         <v>184</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="75">
@@ -8034,7 +8030,7 @@
         <v>185</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="19.5">
@@ -8058,7 +8054,7 @@
         <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="262.5">
@@ -8066,7 +8062,7 @@
         <v>185</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -8085,7 +8081,7 @@
         <v>184</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="75">
@@ -8093,7 +8089,7 @@
         <v>185</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -8104,7 +8100,7 @@
         <v>210</v>
       </c>
       <c r="E36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -8112,7 +8108,7 @@
         <v>184</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="131.25">
@@ -8120,7 +8116,7 @@
         <v>185</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="19.5">
@@ -8133,7 +8129,7 @@
         <v>189</v>
       </c>
       <c r="D41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E41" t="s">
         <v>212</v>
@@ -8144,7 +8140,7 @@
         <v>184</v>
       </c>
       <c r="E42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="356.25">
@@ -8152,7 +8148,7 @@
         <v>185</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="2:5">
@@ -8171,7 +8167,7 @@
         <v>184</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="75">
@@ -8179,7 +8175,7 @@
         <v>185</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="2:5">
@@ -8198,7 +8194,7 @@
         <v>184</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="300">
@@ -8206,7 +8202,7 @@
         <v>185</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -8225,7 +8221,7 @@
         <v>184</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="356.25">
@@ -8233,7 +8229,7 @@
         <v>185</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="19.5">
@@ -8257,7 +8253,7 @@
         <v>184</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="112.5">
@@ -8265,7 +8261,7 @@
         <v>185</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="2:5">
@@ -8284,7 +8280,7 @@
         <v>184</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="262.5">
@@ -8292,7 +8288,7 @@
         <v>185</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="2:5">
@@ -8311,7 +8307,7 @@
         <v>184</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="393.75">
@@ -8319,7 +8315,7 @@
         <v>185</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="2:5">
@@ -8338,7 +8334,7 @@
         <v>184</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="409.5">
@@ -8346,7 +8342,7 @@
         <v>185</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="19.5">
@@ -8370,7 +8366,7 @@
         <v>184</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="112.5">
@@ -8378,7 +8374,7 @@
         <v>185</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="2:5">
@@ -8397,7 +8393,7 @@
         <v>184</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="356.25">
@@ -8405,7 +8401,7 @@
         <v>185</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="19.5">
@@ -8429,7 +8425,7 @@
         <v>184</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="168.75">
@@ -8437,7 +8433,7 @@
         <v>185</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="2:5">
@@ -8456,7 +8452,7 @@
         <v>184</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="3:5" ht="409.5">
@@ -8464,7 +8460,7 @@
         <v>185</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="3:5">
@@ -8483,7 +8479,7 @@
         <v>184</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="3:5" ht="187.5">
@@ -8491,7 +8487,7 @@
         <v>185</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="86" spans="3:5">
@@ -8510,7 +8506,7 @@
         <v>184</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="3:5" ht="168.75">
@@ -8518,7 +8514,7 @@
         <v>185</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="3:5">
@@ -8537,7 +8533,7 @@
         <v>184</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="3:5" ht="93.75">
@@ -8545,7 +8541,7 @@
         <v>185</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/基本設計.xlsx
+++ b/基本設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuyaK\Programs\tamotsuApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAEBB03-280C-455C-BD3D-8B52D18B6523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4104AFE-08BC-4057-9678-2950699BEB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="2280" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{D88CB032-6C85-43BC-8203-54BE0CB90655}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{D88CB032-6C85-43BC-8203-54BE0CB90655}"/>
   </bookViews>
   <sheets>
     <sheet name="システム概要" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="369">
   <si>
     <t>1. システム概要</t>
   </si>
@@ -5270,9 +5270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>METADATA#&lt;timestamp&gt;</t>
-  </si>
-  <si>
     <t>TYPE#TEMP_USER</t>
   </si>
   <si>
@@ -5305,6 +5302,39 @@
   "email": "user@example.com",
   "userType": "user"
 }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{
+  "verificationCode":"ABC123DEF456",
+  "email":"user@example.com",
+  "password":"1234abcd"
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ホスト</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api.tamotsu-app.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auth/verify-email</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5312,7 +5342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5547,6 +5577,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5622,7 +5668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5688,6 +5734,15 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6290,8 +6345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440B250A-6EF2-4E3E-A02B-E3EC75CDFFED}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6653,8 +6708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D4FE9-8BA9-4D91-B1AE-9CFF14E398B8}">
   <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7772,7 +7827,7 @@
         <v>354</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="139" spans="3:5" ht="19.5">
@@ -7780,7 +7835,7 @@
         <v>345</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="140" spans="3:5" ht="19.5">
@@ -7796,31 +7851,31 @@
         <v>348</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="142" spans="3:5" ht="19.5">
       <c r="D142" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="E142" s="21" t="s">
         <v>358</v>
-      </c>
-      <c r="E142" s="21" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="143" spans="3:5" ht="19.5">
       <c r="D143" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="E143" s="21" t="s">
         <v>360</v>
-      </c>
-      <c r="E143" s="21" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="144" spans="3:5" ht="19.5">
       <c r="D144" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E144" s="21" t="s">
         <v>362</v>
-      </c>
-      <c r="E144" s="21" t="s">
-        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -7832,10 +7887,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7835B25-768A-4C19-B78A-A2A5B6A41EB5}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7894,234 +7949,239 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.5">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.5">
+      <c r="B14" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="C13" s="7" t="s">
+    <row r="15" spans="1:5">
+      <c r="C15" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>187</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="75">
-      <c r="D14" t="s">
+    <row r="16" spans="1:5" ht="75">
+      <c r="D16" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E16" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="93.75">
+      <c r="D17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="75">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="7" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="93.75">
-      <c r="D15" t="s">
+      <c r="D21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="93.75">
+      <c r="D22" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="75">
+      <c r="D23" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="C16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" t="s">
-        <v>238</v>
-      </c>
-      <c r="E16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="D17" t="s">
-        <v>240</v>
-      </c>
-      <c r="E17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="75">
-      <c r="D18" t="s">
+      <c r="E23" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="75">
+      <c r="D25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="112.5">
+      <c r="D26" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="C19" s="7" t="s">
+      <c r="E26" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="75">
-      <c r="D20" t="s">
+      <c r="D27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="D28" t="s">
         <v>184</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="112.5">
-      <c r="D21" t="s">
+      <c r="E28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="56.25">
+      <c r="D29" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="C22" s="7" t="s">
+      <c r="E29" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D22" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="D23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E23" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="56.25">
-      <c r="D24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="C25" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="D30" t="s">
         <v>205</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E30" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="56.25">
-      <c r="D26" t="s">
-        <v>184</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="75">
-      <c r="D27" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="19.5">
-      <c r="B29" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="C30" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" t="s">
-        <v>207</v>
-      </c>
-      <c r="E30" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="3:5" ht="56.25">
       <c r="D31" t="s">
         <v>184</v>
       </c>
-      <c r="E31" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="262.5">
+      <c r="E31" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="75">
       <c r="D32" t="s">
         <v>185</v>
       </c>
       <c r="E32" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="19.5">
+      <c r="B34" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="C35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="D36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="262.5">
+      <c r="D37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
-      <c r="C33" s="7" t="s">
+    <row r="38" spans="2:5">
+      <c r="C38" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D38" t="s">
         <v>207</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E38" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="131.25">
-      <c r="D34" t="s">
+    <row r="39" spans="2:5" ht="131.25">
+      <c r="D39" t="s">
         <v>184</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E39" s="16" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="75">
-      <c r="D35" t="s">
+    <row r="40" spans="2:5" ht="75">
+      <c r="D40" t="s">
         <v>185</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E40" s="16" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="C36" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D36" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="D37" t="s">
-        <v>184</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="131.25">
-      <c r="D38" t="s">
-        <v>185</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="19.5">
-      <c r="B40" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -8129,123 +8189,123 @@
         <v>189</v>
       </c>
       <c r="D41" t="s">
-        <v>341</v>
+        <v>210</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="D42" t="s">
         <v>184</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="16" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="356.25">
+    <row r="43" spans="2:5" ht="131.25">
       <c r="D43" t="s">
         <v>185</v>
       </c>
       <c r="E43" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="19.5">
+      <c r="B45" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="C46" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" t="s">
+        <v>341</v>
+      </c>
+      <c r="E46" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="D47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="356.25">
+      <c r="D48" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
-      <c r="C44" s="7" t="s">
+    <row r="49" spans="2:5">
+      <c r="C49" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D49" t="s">
         <v>211</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E49" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="225">
-      <c r="D45" t="s">
+    <row r="50" spans="2:5" ht="225">
+      <c r="D50" t="s">
         <v>184</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E50" s="16" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="75">
-      <c r="D46" t="s">
+    <row r="51" spans="2:5" ht="75">
+      <c r="D51" t="s">
         <v>185</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E51" s="16" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
-      <c r="C47" s="7" t="s">
+    <row r="52" spans="2:5">
+      <c r="C52" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D52" t="s">
         <v>214</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E52" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
-      <c r="D48" t="s">
+    <row r="53" spans="2:5">
+      <c r="D53" t="s">
         <v>184</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E53" s="16" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="300">
-      <c r="D49" t="s">
+    <row r="54" spans="2:5" ht="300">
+      <c r="D54" t="s">
         <v>185</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E54" s="16" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="C50" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D50" t="s">
-        <v>216</v>
-      </c>
-      <c r="E50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="93.75">
-      <c r="D51" t="s">
-        <v>184</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="356.25">
-      <c r="D52" t="s">
-        <v>185</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="19.5">
-      <c r="B54" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="C55" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="E55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="93.75">
@@ -8253,294 +8313,326 @@
         <v>184</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="112.5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="356.25">
       <c r="D57" t="s">
         <v>185</v>
       </c>
       <c r="E57" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="19.5">
+      <c r="B59" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="C60" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="93.75">
+      <c r="D61" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="112.5">
+      <c r="D62" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
-      <c r="C58" s="7" t="s">
+    <row r="63" spans="2:5">
+      <c r="C63" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D63" t="s">
         <v>192</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E63" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="56.25">
-      <c r="D59" t="s">
+    <row r="64" spans="2:5" ht="56.25">
+      <c r="D64" t="s">
         <v>184</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E64" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="262.5">
-      <c r="D60" t="s">
+    <row r="65" spans="2:5" ht="262.5">
+      <c r="D65" t="s">
         <v>185</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E65" s="16" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
-      <c r="C61" s="7" t="s">
+    <row r="66" spans="2:5">
+      <c r="C66" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D66" t="s">
         <v>194</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E66" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="337.5">
-      <c r="D62" t="s">
+    <row r="67" spans="2:5" ht="337.5">
+      <c r="D67" t="s">
         <v>184</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E67" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="393.75">
-      <c r="D63" t="s">
+    <row r="68" spans="2:5" ht="393.75">
+      <c r="D68" t="s">
         <v>185</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E68" s="16" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="C64" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D64" t="s">
-        <v>194</v>
-      </c>
-      <c r="E64" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="56.25">
-      <c r="D65" t="s">
-        <v>184</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="409.5">
-      <c r="D66" t="s">
-        <v>185</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="19.5">
-      <c r="B68" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="C69" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="93.75">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="56.25">
       <c r="D70" t="s">
         <v>184</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" ht="112.5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="409.5">
       <c r="D71" t="s">
         <v>185</v>
       </c>
       <c r="E71" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="19.5">
+      <c r="B73" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="C74" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E74" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="93.75">
+      <c r="D75" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="112.5">
+      <c r="D76" t="s">
+        <v>185</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="C72" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D72" t="s">
-        <v>222</v>
-      </c>
-      <c r="E72" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" ht="75">
-      <c r="D73" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="356.25">
-      <c r="D74" t="s">
-        <v>185</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" ht="19.5">
-      <c r="B76" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="77" spans="2:5">
       <c r="C77" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D77" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E77" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="131.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="75">
       <c r="D78" t="s">
         <v>184</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="168.75">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="356.25">
       <c r="D79" t="s">
         <v>185</v>
       </c>
       <c r="E79" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="19.5">
+      <c r="B81" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="C82" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D82" t="s">
+        <v>224</v>
+      </c>
+      <c r="E82" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="131.25">
+      <c r="D83" t="s">
+        <v>184</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="168.75">
+      <c r="D84" t="s">
+        <v>185</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="80" spans="2:5">
-      <c r="C80" s="7" t="s">
+    <row r="85" spans="2:5">
+      <c r="C85" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D85" t="s">
         <v>224</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E85" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="3:5" ht="75">
-      <c r="D81" t="s">
+    <row r="86" spans="2:5" ht="75">
+      <c r="D86" t="s">
         <v>184</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E86" s="16" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="82" spans="3:5" ht="409.5">
-      <c r="D82" t="s">
+    <row r="87" spans="2:5" ht="409.5">
+      <c r="D87" t="s">
         <v>185</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E87" s="16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="3:5">
-      <c r="C83" s="7" t="s">
+    <row r="88" spans="2:5">
+      <c r="C88" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D88" t="s">
         <v>227</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E88" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="3:5">
-      <c r="D84" t="s">
+    <row r="89" spans="2:5">
+      <c r="D89" t="s">
         <v>184</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E89" s="16" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="85" spans="3:5" ht="187.5">
-      <c r="D85" t="s">
+    <row r="90" spans="2:5" ht="187.5">
+      <c r="D90" t="s">
         <v>185</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E90" s="16" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="3:5">
-      <c r="C86" s="7" t="s">
+    <row r="91" spans="2:5">
+      <c r="C91" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D91" t="s">
         <v>227</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E91" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="3:5" ht="131.25">
-      <c r="D87" t="s">
+    <row r="92" spans="2:5" ht="131.25">
+      <c r="D92" t="s">
         <v>184</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E92" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="88" spans="3:5" ht="168.75">
-      <c r="D88" t="s">
+    <row r="93" spans="2:5" ht="168.75">
+      <c r="D93" t="s">
         <v>185</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E93" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="89" spans="3:5">
-      <c r="C89" s="7" t="s">
+    <row r="94" spans="2:5">
+      <c r="C94" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D94" t="s">
         <v>227</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E94" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="90" spans="3:5">
-      <c r="D90" t="s">
+    <row r="95" spans="2:5">
+      <c r="D95" t="s">
         <v>184</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E95" s="16" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="3:5" ht="93.75">
-      <c r="D91" t="s">
+    <row r="96" spans="2:5" ht="93.75">
+      <c r="D96" t="s">
         <v>185</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E96" s="16" t="s">
         <v>278</v>
       </c>
     </row>

--- a/基本設計.xlsx
+++ b/基本設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuyaK\Programs\tamotsuApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4104AFE-08BC-4057-9678-2950699BEB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21ABA55-9812-45B6-A377-53D41563B4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{D88CB032-6C85-43BC-8203-54BE0CB90655}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D88CB032-6C85-43BC-8203-54BE0CB90655}"/>
   </bookViews>
   <sheets>
     <sheet name="システム概要" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="496">
   <si>
     <t>1. システム概要</t>
   </si>
@@ -5337,12 +5337,590 @@
     <t>auth/verify-email</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>カラム名</t>
+  </si>
+  <si>
+    <t>制約</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>ユーザーの一意識別子</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>UNIQUE, NOT NULL</t>
+  </si>
+  <si>
+    <t>ユーザーのメールアドレス</t>
+  </si>
+  <si>
+    <t>ユーザーのニックネーム</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>ユーザーの性別</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>DECIMAL(5, 2)</t>
+  </si>
+  <si>
+    <t>ユーザーの身長</t>
+  </si>
+  <si>
+    <t>allergies</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>ユーザーのアレルギー情報</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>ユーザーの目標</t>
+  </si>
+  <si>
+    <t>dietary_restrictions</t>
+  </si>
+  <si>
+    <t>ユーザーの食事制限</t>
+  </si>
+  <si>
+    <t>disliked_foods</t>
+  </si>
+  <si>
+    <t>ユーザーの嫌いな食べ物</t>
+  </si>
+  <si>
+    <t>health_concerns</t>
+  </si>
+  <si>
+    <t>ユーザーの健康上の懸念</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>ユーザーの作成日時</t>
+  </si>
+  <si>
+    <t>last_login</t>
+  </si>
+  <si>
+    <t>ユーザーの最終ログイン日時</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>栄養士テーブル</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (nutritionists)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nutritionist_id</t>
+  </si>
+  <si>
+    <t>栄養士の一意識別子</t>
+  </si>
+  <si>
+    <t>栄養士のメールアドレス</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>栄養士の名前</t>
+  </si>
+  <si>
+    <t>qualifications</t>
+  </si>
+  <si>
+    <t>栄養士の資格</t>
+  </si>
+  <si>
+    <t>栄養士の作成日時</t>
+  </si>
+  <si>
+    <t>栄養士の最終ログイン日時</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY (user_id, timestamp)</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>記録のタイムスタンプ</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>記録された体重</t>
+  </si>
+  <si>
+    <t>record_date</t>
+  </si>
+  <si>
+    <t>記録日の日時</t>
+  </si>
+  <si>
+    <t>record_datetime</t>
+  </si>
+  <si>
+    <t>記録の日時</t>
+  </si>
+  <si>
+    <t>meal_type</t>
+  </si>
+  <si>
+    <t>食事の種類</t>
+  </si>
+  <si>
+    <t>photo_url</t>
+  </si>
+  <si>
+    <t>食事の写真URL</t>
+  </si>
+  <si>
+    <t>食事記録テーブル (meal_logs)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>体重記録テーブル</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (weight_logs)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>食品項目の一意識別子</t>
+  </si>
+  <si>
+    <t>食品の名前</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>DECIMAL(10, 2)</t>
+  </si>
+  <si>
+    <t>食品の量</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>量の単位</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>食品項目テーブル</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (food_items)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat_id</t>
+  </si>
+  <si>
+    <t>チャットの一意識別子</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>チャットの開始時間</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>チャットの終了時間</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>チャットのステータス</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>チャットテーブル</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (chats)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY (chat_id, timestamp)</t>
+  </si>
+  <si>
+    <t>メッセージのタイムスタンプ</t>
+  </si>
+  <si>
+    <t>sender_id</t>
+  </si>
+  <si>
+    <t>メッセージ送信者の一意識別子</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>メッセージの内容</t>
+  </si>
+  <si>
+    <t>メッセージの作成日時</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>チャットメッセージテーブル</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (chat_messages)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appointment_id</t>
+  </si>
+  <si>
+    <t>予約の一意識別子</t>
+  </si>
+  <si>
+    <t>appointment_time</t>
+  </si>
+  <si>
+    <t>予約の日時</t>
+  </si>
+  <si>
+    <t>予約のステータス</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>予約のメモ</t>
+  </si>
+  <si>
+    <t>予約テーブル (appointments)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザー一時保存テーブル</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (temp_users)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_type</t>
+  </si>
+  <si>
+    <t>ユーザーの種類</t>
+  </si>
+  <si>
+    <t>verification_code</t>
+  </si>
+  <si>
+    <t>検証コード</t>
+  </si>
+  <si>
+    <t>ユーザーテーブル (users)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DynamoDB時代</t>
+    <rPh sb="8" eb="10">
+      <t>ジダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.2 テーブル定義</t>
+    <rPh sb="8" eb="10">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>introduce</t>
+  </si>
+  <si>
+    <t>栄養士の自己紹介</t>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DECIMAL(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ユ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ーザーの年齢</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile_image_url</t>
+  </si>
+  <si>
+    <t>profile_image_url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ユ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ーザーのプロフィール画像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>URL</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>栄養士のプロフィール画像URL</t>
+  </si>
+  <si>
+    <t>specialties</t>
+  </si>
+  <si>
+    <t>栄養士の専門分野</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>栄養士の経験年数</t>
+  </si>
+  <si>
+    <t>languages</t>
+  </si>
+  <si>
+    <t>栄養士の対応言語</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>栄養士の学歴</t>
+  </si>
+  <si>
+    <t>certifications</t>
+  </si>
+  <si>
+    <t>栄養士の認定資格</t>
+  </si>
+  <si>
+    <t>available_hours</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>栄養士の対応可能時間</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5578,6 +6156,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <strike/>
       <sz val="12"/>
       <color theme="1"/>
@@ -5592,6 +6179,43 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5608,7 +6232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -5662,13 +6286,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5735,13 +6494,73 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5864,8 +6683,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>181932</xdr:rowOff>
     </xdr:to>
@@ -6706,1175 +7525,2134 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D4FE9-8BA9-4D91-B1AE-9CFF14E398B8}">
-  <dimension ref="A1:P144"/>
+  <dimension ref="A1:L236"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="60.5" customWidth="1"/>
+    <col min="6" max="6" width="46.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="P4" s="5" t="s">
+    <row r="4" spans="1:12">
+      <c r="L4" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="P5" s="6" t="s">
+    <row r="5" spans="1:12">
+      <c r="L5" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="P6" s="6" t="s">
+    <row r="6" spans="1:12">
+      <c r="L6" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="P7" s="6" t="s">
+    <row r="7" spans="1:12">
+      <c r="L7" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="P8" s="6" t="s">
+    <row r="8" spans="1:12">
+      <c r="L8" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="P9" s="6" t="s">
+    <row r="9" spans="1:12">
+      <c r="L9" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="P10" s="6" t="s">
+    <row r="10" spans="1:12">
+      <c r="L10" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="P11" s="6" t="s">
+    <row r="11" spans="1:12">
+      <c r="L11" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="P12" s="6" t="s">
+    <row r="12" spans="1:12">
+      <c r="L12" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="P13" s="6" t="s">
+    <row r="13" spans="1:12">
+      <c r="L13" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="P14" s="6" t="s">
+    <row r="14" spans="1:12">
+      <c r="L14" s="6" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="P15" s="6" t="s">
+    <row r="15" spans="1:12">
+      <c r="L15" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="P16" s="6" t="s">
+    <row r="16" spans="1:12">
+      <c r="L16" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="16:16">
-      <c r="P17" s="6" t="s">
+    <row r="17" spans="12:12">
+      <c r="L17" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="16:16">
-      <c r="P18" s="6" t="s">
+    <row r="18" spans="12:12">
+      <c r="L18" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="16:16">
-      <c r="P19" s="6" t="s">
+    <row r="19" spans="12:12">
+      <c r="L19" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="16:16">
-      <c r="P20" s="6" t="s">
+    <row r="20" spans="12:12">
+      <c r="L20" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="16:16">
-      <c r="P21" s="6" t="s">
+    <row r="21" spans="12:12">
+      <c r="L21" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="16:16">
-      <c r="P22" s="6" t="s">
+    <row r="22" spans="12:12">
+      <c r="L22" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="16:16">
-      <c r="P23" s="6" t="s">
+    <row r="23" spans="12:12">
+      <c r="L23" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="16:16">
-      <c r="P24" s="6" t="s">
+    <row r="24" spans="12:12">
+      <c r="L24" s="6" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="16:16">
-      <c r="P25" s="6" t="s">
+    <row r="25" spans="12:12">
+      <c r="L25" s="6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="16:16">
-      <c r="P26" s="6" t="s">
+    <row r="26" spans="12:12">
+      <c r="L26" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="16:16">
-      <c r="P27" s="6" t="s">
+    <row r="27" spans="12:12">
+      <c r="L27" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="16:16">
-      <c r="P28" s="6" t="s">
+    <row r="28" spans="12:12">
+      <c r="L28" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="16:16">
-      <c r="P29" s="6" t="s">
+    <row r="29" spans="12:12">
+      <c r="L29" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="16:16">
-      <c r="P30" s="6" t="s">
+    <row r="30" spans="12:12">
+      <c r="L30" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="16:16">
-      <c r="P31" s="6" t="s">
+    <row r="31" spans="12:12">
+      <c r="L31" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="16:16">
-      <c r="P32" s="6" t="s">
+    <row r="32" spans="12:12">
+      <c r="L32" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
-      <c r="P33" s="6" t="s">
+    <row r="33" spans="2:12">
+      <c r="L33" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
-      <c r="P34" s="6" t="s">
+    <row r="34" spans="2:12">
+      <c r="L34" s="6" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
-      <c r="P35" s="6" t="s">
+    <row r="35" spans="2:12">
+      <c r="L35" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
-      <c r="P36" s="6" t="s">
+    <row r="36" spans="2:12" ht="19.5">
+      <c r="B36" t="s">
+        <v>469</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="L36" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
-      <c r="P37" s="6" t="s">
+    <row r="37" spans="2:12" ht="19.5" thickBot="1">
+      <c r="C37" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="L37" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
-      <c r="P38" s="6" t="s">
+    <row r="38" spans="2:12" ht="19.5" thickBot="1">
+      <c r="C38" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="L38" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
-      <c r="P39" s="6" t="s">
+    <row r="39" spans="2:12" ht="19.5" thickBot="1">
+      <c r="C39" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="L39" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="2:16">
-      <c r="P40" s="6" t="s">
+    <row r="40" spans="2:12" ht="19.5" thickBot="1">
+      <c r="C40" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="L40" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
-      <c r="P41" s="6" t="s">
+    <row r="41" spans="2:12" ht="19.5" thickBot="1">
+      <c r="C41" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="L41" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
-      <c r="P42" s="6" t="s">
+    <row r="42" spans="2:12" ht="19.5" thickBot="1">
+      <c r="C42" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L42" s="6" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
-      <c r="P43" s="6" t="s">
+    <row r="43" spans="2:12" ht="19.5" thickBot="1">
+      <c r="C43" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="L43" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="44" spans="2:16">
-      <c r="P44" s="6" t="s">
+    <row r="44" spans="2:12" ht="19.5" thickBot="1">
+      <c r="C44" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="L44" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="2:12" ht="19.5" thickBot="1">
+      <c r="C45" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="19.5" thickBot="1">
+      <c r="C46" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="19.5" thickBot="1">
+      <c r="C47" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="19.5" thickBot="1">
+      <c r="C48" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C49" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C50" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C51" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C52" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12">
+      <c r="L53" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C54" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12">
+      <c r="C55" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12">
+      <c r="C56" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12">
+      <c r="C57" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12">
+      <c r="C58" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12">
+      <c r="C59" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="E59" s="32"/>
+      <c r="F59" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12">
+      <c r="C60" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="E60" s="32"/>
+      <c r="F60" s="39" t="s">
+        <v>473</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12">
+      <c r="C61" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="E61" s="32"/>
+      <c r="F61" s="40" t="s">
+        <v>481</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12">
+      <c r="C62" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="E62" s="32"/>
+      <c r="F62" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12">
+      <c r="C63" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="E63" s="32"/>
+      <c r="F63" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12">
+      <c r="C64" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="E64" s="32"/>
+      <c r="F64" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12">
+      <c r="C65" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="E65" s="32"/>
+      <c r="F65" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12">
+      <c r="C66" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="E66" s="32"/>
+      <c r="F66" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12">
+      <c r="C67" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="E67" s="32"/>
+      <c r="F67" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12">
+      <c r="C68" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="F68" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C69" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="E69" s="43"/>
+      <c r="F69" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12">
+      <c r="L70" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C71" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C72" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="F72" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C73" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C74" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C75" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C76" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12">
+      <c r="L77" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C78" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C79" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="F79" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C80" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C81" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C82" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C83" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C84" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12">
+      <c r="L85" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C86" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C87" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="F87" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="L87" s="18"/>
+    </row>
+    <row r="88" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C88" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C89" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C90" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="91" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C91" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C92" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12">
+      <c r="L93" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C94" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C95" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="F95" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C96" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C97" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C98" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C99" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C100" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C101" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="103" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C103" s="29" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="104" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C104" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D104" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="F104" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C105" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E105" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="F105" s="25" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="106" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C106" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C107" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="108" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C108" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="109" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C109" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="E109" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="F109" s="25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="111" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C111" s="31" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="112" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C112" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E112" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="F112" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" ht="19.5" thickBot="1">
+      <c r="C113" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E113" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F113" s="25" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" ht="19.5" thickBot="1">
+      <c r="C114" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" ht="19.5" thickBot="1">
+      <c r="C115" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D115" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" ht="19.5" thickBot="1">
+      <c r="C116" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" ht="19.5" thickBot="1">
+      <c r="C117" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" ht="19.5" thickBot="1">
+      <c r="C118" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6" ht="19.5" thickBot="1">
+      <c r="C120" s="29" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" ht="19.5" thickBot="1">
+      <c r="C121" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D121" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E121" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="F121" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6" ht="19.5" thickBot="1">
+      <c r="C122" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6" ht="19.5" thickBot="1">
+      <c r="C123" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" ht="19.5" thickBot="1">
+      <c r="C124" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6" ht="19.5" thickBot="1">
+      <c r="C125" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="B137" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P45" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16">
-      <c r="C46" s="2" t="s">
+    </row>
+    <row r="138" spans="1:5">
+      <c r="C138" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P46" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" ht="19.5" thickBot="1">
-      <c r="P47" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" ht="19.5" thickBot="1">
-      <c r="C48" s="9" t="s">
+    </row>
+    <row r="139" spans="1:5" ht="19.5" thickBot="1"/>
+    <row r="140" spans="1:5" ht="19.5" thickBot="1">
+      <c r="C140" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D140" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E140" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="P48" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" ht="19.5" thickBot="1">
-      <c r="C49" s="8" t="s">
+    </row>
+    <row r="141" spans="1:5" ht="19.5" thickBot="1">
+      <c r="C141" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D141" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E141" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="P49" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" ht="19.5" thickBot="1">
-      <c r="C50" s="8" t="s">
+    </row>
+    <row r="142" spans="1:5" ht="19.5" thickBot="1">
+      <c r="C142" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D142" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E142" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="P50" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" ht="19.5" thickBot="1">
-      <c r="C51" s="8" t="s">
+    </row>
+    <row r="143" spans="1:5" ht="19.5" thickBot="1">
+      <c r="C143" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D143" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E143" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="P51" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" ht="19.5" thickBot="1">
-      <c r="C52" s="8" t="s">
+    </row>
+    <row r="144" spans="1:5" ht="19.5" thickBot="1">
+      <c r="C144" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D144" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E144" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="P52" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" ht="19.5" thickBot="1">
-      <c r="C53" s="8" t="s">
+    </row>
+    <row r="145" spans="2:5" ht="19.5" thickBot="1">
+      <c r="C145" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D145" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E145" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="P53" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" ht="19.5" thickBot="1">
-      <c r="C54" s="8" t="s">
+    </row>
+    <row r="146" spans="2:5" ht="19.5" thickBot="1">
+      <c r="C146" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D146" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E146" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="P54" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" ht="19.5" thickBot="1">
-      <c r="C55" s="8" t="s">
+    </row>
+    <row r="147" spans="2:5" ht="19.5" thickBot="1">
+      <c r="C147" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D147" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E147" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="P55" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" ht="19.5" thickBot="1">
-      <c r="C56" s="8" t="s">
+    </row>
+    <row r="148" spans="2:5" ht="19.5" thickBot="1">
+      <c r="C148" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D148" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E148" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="P56" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" ht="29.25" thickBot="1">
-      <c r="C57" s="8" t="s">
+    </row>
+    <row r="149" spans="2:5" ht="29.25" thickBot="1">
+      <c r="C149" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D149" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E149" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="P57" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" ht="19.5" thickBot="1">
-      <c r="C58" s="8" t="s">
+    </row>
+    <row r="150" spans="2:5" ht="19.5" thickBot="1">
+      <c r="C150" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D150" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E150" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="P58" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16">
-      <c r="P59" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16">
-      <c r="B60" s="1" t="s">
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="P60" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" ht="19.5">
-      <c r="C61" s="17" t="s">
+    </row>
+    <row r="153" spans="2:5" ht="19.5">
+      <c r="C153" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="P61" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16">
-      <c r="D62" s="7" t="s">
+    </row>
+    <row r="154" spans="2:5">
+      <c r="D154" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E154" t="s">
         <v>151</v>
       </c>
-      <c r="P62" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16">
-      <c r="D63" s="7" t="s">
+    </row>
+    <row r="155" spans="2:5">
+      <c r="D155" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E155" t="s">
         <v>200</v>
       </c>
-      <c r="P63" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16">
-      <c r="D64" s="7" t="s">
+    </row>
+    <row r="156" spans="2:5">
+      <c r="D156" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E156" t="s">
         <v>281</v>
       </c>
-      <c r="P64" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="65" spans="3:16">
-      <c r="D65" s="7" t="s">
+    </row>
+    <row r="157" spans="2:5">
+      <c r="D157" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E157" t="s">
         <v>151</v>
       </c>
-      <c r="P65" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="66" spans="3:16">
-      <c r="D66" s="7" t="s">
+    </row>
+    <row r="158" spans="2:5">
+      <c r="D158" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E158" t="s">
         <v>140</v>
       </c>
-      <c r="P66" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="67" spans="3:16">
-      <c r="D67" s="7" t="s">
+    </row>
+    <row r="159" spans="2:5">
+      <c r="D159" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E159" t="s">
         <v>151</v>
       </c>
-      <c r="P67" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="68" spans="3:16">
-      <c r="D68" s="7" t="s">
+    </row>
+    <row r="160" spans="2:5">
+      <c r="D160" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E160" t="s">
         <v>142</v>
       </c>
-      <c r="P68" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="69" spans="3:16">
-      <c r="D69" s="7" t="s">
+    </row>
+    <row r="161" spans="3:5">
+      <c r="D161" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E161" t="s">
         <v>143</v>
       </c>
-      <c r="P69" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="70" spans="3:16">
-      <c r="C70" s="13" t="s">
+    </row>
+    <row r="162" spans="3:5">
+      <c r="C162" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="P70" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="71" spans="3:16">
-      <c r="D71" s="7" t="s">
+    </row>
+    <row r="163" spans="3:5">
+      <c r="D163" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E163" t="s">
         <v>164</v>
       </c>
-      <c r="P71" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="72" spans="3:16">
-      <c r="D72" s="7" t="s">
+    </row>
+    <row r="164" spans="3:5">
+      <c r="D164" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E164" t="s">
         <v>201</v>
       </c>
-      <c r="P72" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="73" spans="3:16">
-      <c r="D73" s="7" t="s">
+    </row>
+    <row r="165" spans="3:5">
+      <c r="D165" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E165" t="s">
         <v>282</v>
       </c>
-      <c r="P73" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="74" spans="3:16">
-      <c r="D74" s="7" t="s">
+    </row>
+    <row r="166" spans="3:5">
+      <c r="D166" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E166" t="s">
         <v>164</v>
       </c>
-      <c r="P74" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="75" spans="3:16">
-      <c r="D75" s="7" t="s">
+    </row>
+    <row r="167" spans="3:5">
+      <c r="D167" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E167" t="s">
         <v>140</v>
       </c>
-      <c r="P75" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="76" spans="3:16">
-      <c r="D76" s="7" t="s">
+    </row>
+    <row r="168" spans="3:5">
+      <c r="D168" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E168" t="s">
         <v>164</v>
       </c>
-      <c r="P76" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="77" spans="3:16">
-      <c r="D77" s="7" t="s">
+    </row>
+    <row r="169" spans="3:5">
+      <c r="D169" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E169" t="s">
         <v>144</v>
       </c>
-      <c r="P77" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="78" spans="3:16">
-      <c r="D78" s="7" t="s">
+    </row>
+    <row r="170" spans="3:5">
+      <c r="D170" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E170" t="s">
         <v>168</v>
       </c>
-      <c r="P78" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="79" spans="3:16">
-      <c r="C79" s="13" t="s">
+    </row>
+    <row r="171" spans="3:5">
+      <c r="C171" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="P79" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="80" spans="3:16">
-      <c r="D80" s="7" t="s">
+    </row>
+    <row r="172" spans="3:5">
+      <c r="D172" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E172" t="s">
         <v>164</v>
       </c>
-      <c r="P80" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16">
-      <c r="D81" s="7" t="s">
+    </row>
+    <row r="173" spans="3:5">
+      <c r="D173" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E173" t="s">
         <v>151</v>
       </c>
-      <c r="P81" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16">
-      <c r="D82" s="7" t="s">
+    </row>
+    <row r="174" spans="3:5">
+      <c r="D174" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E174" t="s">
         <v>283</v>
       </c>
-      <c r="P82" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="83" spans="3:16">
-      <c r="D83" s="7" t="s">
+    </row>
+    <row r="175" spans="3:5">
+      <c r="D175" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E175" t="s">
         <v>164</v>
       </c>
-      <c r="P83" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16">
-      <c r="D84" s="7" t="s">
+    </row>
+    <row r="176" spans="3:5">
+      <c r="D176" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E176" t="s">
         <v>151</v>
       </c>
-      <c r="P84" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="85" spans="3:16">
-      <c r="D85" s="7" t="s">
+    </row>
+    <row r="177" spans="3:5">
+      <c r="D177" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E177" t="s">
         <v>164</v>
       </c>
-      <c r="P85" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="86" spans="3:16">
-      <c r="D86" s="7" t="s">
+    </row>
+    <row r="178" spans="3:5">
+      <c r="D178" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E178" t="s">
         <v>166</v>
       </c>
-      <c r="P86" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="87" spans="3:16">
-      <c r="D87" s="7" t="s">
+    </row>
+    <row r="179" spans="3:5">
+      <c r="D179" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E179" t="s">
         <v>167</v>
       </c>
-      <c r="P87" s="18"/>
-    </row>
-    <row r="88" spans="3:16">
-      <c r="C88" s="12" t="s">
+    </row>
+    <row r="180" spans="3:5">
+      <c r="C180" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="P88" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="89" spans="3:16">
-      <c r="D89" s="7" t="s">
+    </row>
+    <row r="181" spans="3:5">
+      <c r="D181" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E181" t="s">
         <v>151</v>
       </c>
-      <c r="P89" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16">
-      <c r="D90" s="7" t="s">
+    </row>
+    <row r="182" spans="3:5">
+      <c r="D182" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E182" t="s">
         <v>145</v>
       </c>
-      <c r="P90" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="91" spans="3:16">
-      <c r="D91" s="7" t="s">
+    </row>
+    <row r="183" spans="3:5">
+      <c r="D183" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E183" t="s">
         <v>284</v>
       </c>
-      <c r="P91" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16">
-      <c r="D92" s="7" t="s">
+    </row>
+    <row r="184" spans="3:5">
+      <c r="D184" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E184" t="s">
         <v>151</v>
       </c>
-      <c r="P92" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="93" spans="3:16">
-      <c r="D93" s="7" t="s">
+    </row>
+    <row r="185" spans="3:5">
+      <c r="D185" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E185" t="s">
         <v>146</v>
       </c>
-      <c r="P93" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="94" spans="3:16">
-      <c r="D94" s="7" t="s">
+    </row>
+    <row r="186" spans="3:5">
+      <c r="D186" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E186" t="s">
         <v>147</v>
       </c>
-      <c r="P94" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16">
-      <c r="C95" s="12" t="s">
+    </row>
+    <row r="187" spans="3:5">
+      <c r="C187" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="P95" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="96" spans="3:16">
-      <c r="D96" s="7" t="s">
+    </row>
+    <row r="188" spans="3:5">
+      <c r="D188" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E188" t="s">
         <v>151</v>
       </c>
-      <c r="P96" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16">
-      <c r="D97" s="7" t="s">
+    </row>
+    <row r="189" spans="3:5">
+      <c r="D189" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E189" t="s">
         <v>148</v>
       </c>
-      <c r="P97" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="98" spans="3:16">
-      <c r="D98" s="7" t="s">
+    </row>
+    <row r="190" spans="3:5">
+      <c r="D190" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E190" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="99" spans="3:16">
-      <c r="D99" s="7" t="s">
+    <row r="191" spans="3:5">
+      <c r="D191" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E191" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="3:16">
-      <c r="D100" s="7" t="s">
+    <row r="192" spans="3:5">
+      <c r="D192" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E192" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="3:16">
-      <c r="D101" s="7" t="s">
+    <row r="193" spans="3:5">
+      <c r="D193" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E193" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="3:16">
-      <c r="C102" s="12" t="s">
+    <row r="194" spans="3:5">
+      <c r="C194" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="3:16">
-      <c r="D103" s="7" t="s">
+    <row r="195" spans="3:5">
+      <c r="D195" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E195" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="3:16">
-      <c r="D104" s="7" t="s">
+    <row r="196" spans="3:5">
+      <c r="D196" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E196" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="3:16">
-      <c r="D105" s="7" t="s">
+    <row r="197" spans="3:5">
+      <c r="D197" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E197" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="106" spans="3:16">
-      <c r="D106" s="7" t="s">
+    <row r="198" spans="3:5">
+      <c r="D198" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E198" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="3:16">
-      <c r="D107" s="7" t="s">
+    <row r="199" spans="3:5">
+      <c r="D199" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E199" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="108" spans="3:16">
-      <c r="D108" s="7" t="s">
+    <row r="200" spans="3:5">
+      <c r="D200" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E200" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="109" spans="3:16">
-      <c r="C109" s="12" t="s">
+    <row r="201" spans="3:5">
+      <c r="C201" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="3:16">
-      <c r="D110" s="7" t="s">
+    <row r="202" spans="3:5">
+      <c r="D202" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E202" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="111" spans="3:16">
-      <c r="D111" s="7" t="s">
+    <row r="203" spans="3:5">
+      <c r="D203" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E203" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="3:16">
-      <c r="D112" s="7" t="s">
+    <row r="204" spans="3:5">
+      <c r="D204" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E204" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="113" spans="3:5">
-      <c r="D113" s="7" t="s">
+    <row r="205" spans="3:5">
+      <c r="D205" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E205" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="3:5">
-      <c r="D114" s="7" t="s">
+    <row r="206" spans="3:5">
+      <c r="D206" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E206" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="3:5">
-      <c r="D115" s="7" t="s">
+    <row r="207" spans="3:5">
+      <c r="D207" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E207" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="116" spans="3:5">
-      <c r="D116" s="7" t="s">
+    <row r="208" spans="3:5">
+      <c r="D208" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E208" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="3:5">
-      <c r="D117" s="7" t="s">
+    <row r="209" spans="3:5">
+      <c r="D209" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E209" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="118" spans="3:5">
-      <c r="D118" s="7" t="s">
+    <row r="210" spans="3:5">
+      <c r="D210" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E210" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="119" spans="3:5">
-      <c r="D119" s="7" t="s">
+    <row r="211" spans="3:5">
+      <c r="D211" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E211" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="120" spans="3:5">
-      <c r="C120" s="12" t="s">
+    <row r="212" spans="3:5">
+      <c r="C212" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="121" spans="3:5">
-      <c r="D121" s="7" t="s">
+    <row r="213" spans="3:5">
+      <c r="D213" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E213" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="122" spans="3:5">
-      <c r="D122" s="7" t="s">
+    <row r="214" spans="3:5">
+      <c r="D214" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E214" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="123" spans="3:5">
-      <c r="D123" s="7" t="s">
+    <row r="215" spans="3:5">
+      <c r="D215" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E215" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="124" spans="3:5">
-      <c r="D124" s="7" t="s">
+    <row r="216" spans="3:5">
+      <c r="D216" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E216" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="125" spans="3:5">
-      <c r="D125" s="7" t="s">
+    <row r="217" spans="3:5">
+      <c r="D217" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E217" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="3:5">
-      <c r="D126" s="7" t="s">
+    <row r="218" spans="3:5">
+      <c r="D218" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E218" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="3:5">
-      <c r="C127" s="12" t="s">
+    <row r="219" spans="3:5">
+      <c r="C219" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="3:5">
-      <c r="D128" s="7" t="s">
+    <row r="220" spans="3:5">
+      <c r="D220" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E220" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="129" spans="3:5">
-      <c r="D129" s="7" t="s">
+    <row r="221" spans="3:5">
+      <c r="D221" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E221" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="130" spans="3:5">
-      <c r="D130" s="7" t="s">
+    <row r="222" spans="3:5">
+      <c r="D222" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E222" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="131" spans="3:5">
-      <c r="D131" s="7" t="s">
+    <row r="223" spans="3:5">
+      <c r="D223" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E223" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="3:5">
-      <c r="D132" s="7" t="s">
+    <row r="224" spans="3:5">
+      <c r="D224" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E224" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="133" spans="3:5">
-      <c r="D133" s="7" t="s">
+    <row r="225" spans="3:5">
+      <c r="D225" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E225" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="134" spans="3:5">
-      <c r="D134" s="7" t="s">
+    <row r="226" spans="3:5">
+      <c r="D226" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E226" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="135" spans="3:5">
-      <c r="D135" s="7" t="s">
+    <row r="227" spans="3:5">
+      <c r="D227" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E227" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="136" spans="3:5" ht="19.5">
-      <c r="C136" s="19" t="s">
+    <row r="228" spans="3:5" ht="19.5">
+      <c r="C228" s="19" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="137" spans="3:5" ht="19.5">
-      <c r="D137" s="20" t="s">
+    <row r="229" spans="3:5" ht="19.5">
+      <c r="D229" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="E137" s="21" t="s">
+      <c r="E229" s="21" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="138" spans="3:5" ht="19.5">
-      <c r="D138" s="21" t="s">
+    <row r="230" spans="3:5" ht="19.5">
+      <c r="D230" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="E138" s="21" t="s">
+      <c r="E230" s="21" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="139" spans="3:5" ht="19.5">
-      <c r="D139" s="21" t="s">
+    <row r="231" spans="3:5" ht="19.5">
+      <c r="D231" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="E139" s="21" t="s">
+      <c r="E231" s="21" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="3:5" ht="19.5">
-      <c r="D140" s="21" t="s">
+    <row r="232" spans="3:5" ht="19.5">
+      <c r="D232" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="E140" s="21" t="s">
+      <c r="E232" s="21" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="141" spans="3:5" ht="19.5">
-      <c r="D141" s="21" t="s">
+    <row r="233" spans="3:5" ht="19.5">
+      <c r="D233" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="E141" s="21" t="s">
+      <c r="E233" s="21" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="142" spans="3:5" ht="19.5">
-      <c r="D142" s="21" t="s">
+    <row r="234" spans="3:5" ht="19.5">
+      <c r="D234" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E142" s="21" t="s">
+      <c r="E234" s="21" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="143" spans="3:5" ht="19.5">
-      <c r="D143" s="21" t="s">
+    <row r="235" spans="3:5" ht="19.5">
+      <c r="D235" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="E143" s="21" t="s">
+      <c r="E235" s="21" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="144" spans="3:5" ht="19.5">
-      <c r="D144" s="21" t="s">
+    <row r="236" spans="3:5" ht="19.5">
+      <c r="D236" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="E144" s="21" t="s">
+      <c r="E236" s="21" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7889,8 +9667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7835B25-768A-4C19-B78A-A2A5B6A41EB5}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/基本設計.xlsx
+++ b/基本設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuyaK\Programs\tamotsuApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21ABA55-9812-45B6-A377-53D41563B4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4819A0D7-7EA7-4B4B-81CE-50FBE60095EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D88CB032-6C85-43BC-8203-54BE0CB90655}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{D88CB032-6C85-43BC-8203-54BE0CB90655}"/>
   </bookViews>
   <sheets>
     <sheet name="システム概要" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="500">
   <si>
     <t>1. システム概要</t>
   </si>
@@ -2195,9 +2195,6 @@
   </si>
   <si>
     <t>特定栄養士の公開プロフィール情報取得</t>
-  </si>
-  <si>
-    <t>/nutritionists</t>
   </si>
   <si>
     <t>栄養士一覧の取得（検索条件を含む）</t>
@@ -2567,36 +2564,6 @@
     "friday": ["10:00-13:00", "14:00-18:00"]
   }
 }</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{
-  "nutritionists": [
-    {
-      "nutritionistId": "n67890",
-      "name": "鈴木花子",
-      "specialties": ["ダイエット", "アスリート栄養", "食物アレルギー"],
-      "experience": 5
-    },
-    {
-      "nutritionistId": "n67891",
-      "name": "佐藤健太",
-      "specialties": ["ダイエット", "高齢者栄養"],
-      "experience": 3
-    }
-  ],
-  "total": 2,
-  "page": 1,
-  "perPage": 10
-}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ヘッダー: Authorization: Bearer &lt;access_token&gt;
-specialty (オプション): 専門分野でフィルタリング
-language (オプション): 言語でフィルタリング
-page (オプション): ページ番号 (デフォルト: 1)
-perPage (オプション): 1ページあたりの結果数 (デフォルト: 10)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5914,6 +5881,106 @@
   </si>
   <si>
     <t>栄養士の対応可能時間</t>
+  </si>
+  <si>
+    <t>/nutritionists/list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー: Authorization: Bearer &lt;access_token&gt;
+search (オプション): 検索文字列でフィルタリング(得意分野, 自己紹介, 資格)
+page (オプション): ページ番号 (デフォルト: 1)
+perPage (オプション): 1ページあたりの結果数 (デフォルト: 10)</t>
+    <rPh sb="59" eb="61">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>トクイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ブンヤ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{
+  "nutritionists": [
+    {
+      nutritionistId: '1',
+      name: '山田花子',
+      imageUrl: 'https://example.com/image1.jpg',
+      introduce: '健康的な食生活をサポートします。',
+      specialties: ['ダイエット', '糖尿病食'],
+      registeredUsers: 50,
+      availableHours: ['9:00-12:00', '13:00-17:00']
+    },
+    {
+      nutritionistId: '1',
+      name: '山田花子',
+      imageUrl: 'https://example.com/image1.jpg',
+      introduce: '健康的な食生活をサポートします。',
+      specialties: ['ダイエット', '糖尿病食'],
+      registeredUsers: 50,
+      availableHours: ['9:00-12:00', '13:00-17:00']
+    }  
+],
+  "total": 2,
+  "page": 1,
+  "perPage": 10
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/users/selectNutritionist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理栄養士を決定する</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>エイヨウシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー: Authorization: Bearer &lt;access_token&gt;
+{
+  nutritionistId: "N12345"
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{
+  "message": "管理栄養士を決定しました",
+  "updatedAt": "2023-07-26T11:00:00Z"
+}</t>
+    <rPh sb="16" eb="18">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>エイヨウシ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -6515,7 +6582,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -7527,7 +7594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D4FE9-8BA9-4D91-B1AE-9CFF14E398B8}">
   <dimension ref="A1:L236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
@@ -7556,884 +7623,884 @@
     </row>
     <row r="4" spans="1:12">
       <c r="L4" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="L5" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="L6" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="L7" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="L8" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="L9" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="L10" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="L11" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="L12" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="L13" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="L14" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="L15" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="L16" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="12:12">
       <c r="L19" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="12:12">
       <c r="L20" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="12:12">
       <c r="L22" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="12:12">
       <c r="L23" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="12:12">
       <c r="L24" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="12:12">
       <c r="L25" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="12:12">
       <c r="L26" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="12:12">
       <c r="L27" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="12:12">
       <c r="L28" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="12:12">
       <c r="L29" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="12:12">
       <c r="L30" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="12:12">
       <c r="L31" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="12:12">
       <c r="L32" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="2:12">
       <c r="L33" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="2:12">
       <c r="L34" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="L35" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="19.5">
       <c r="B36" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="L36" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="19.5" thickBot="1">
       <c r="C37" s="31" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="19.5" thickBot="1">
       <c r="C38" s="26" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>117</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F38" s="28" t="s">
         <v>118</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="19.5" thickBot="1">
       <c r="C39" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="F39" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="D39" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>374</v>
-      </c>
       <c r="L39" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="19.5" thickBot="1">
       <c r="C40" s="25" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="19.5" thickBot="1">
       <c r="C41" s="25" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="19.5" thickBot="1">
       <c r="C42" s="25" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="14" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="19.5" thickBot="1">
       <c r="C43" s="25" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E43" s="25"/>
       <c r="F43" s="25" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="19.5" thickBot="1">
       <c r="C44" s="25" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="19.5" thickBot="1">
       <c r="C45" s="25" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E45" s="25"/>
       <c r="F45" s="25" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="19.5" thickBot="1">
       <c r="C46" s="25" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E46" s="25"/>
       <c r="F46" s="25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="19.5" thickBot="1">
       <c r="C47" s="25" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E47" s="25"/>
       <c r="F47" s="25" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="19.5" thickBot="1">
       <c r="C48" s="25" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E48" s="25"/>
       <c r="F48" s="25" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="3:12" ht="19.5" thickBot="1">
       <c r="C49" s="25" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E49" s="25"/>
       <c r="F49" s="25" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="3:12" ht="19.5" thickBot="1">
       <c r="C50" s="25" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="14" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="3:12" ht="19.5" thickBot="1">
       <c r="C51" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F51" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="D51" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>400</v>
-      </c>
       <c r="L51" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="3:12" ht="19.5" thickBot="1">
       <c r="C52" s="25" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="25" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="3:12">
       <c r="L53" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="3:12" ht="19.5" thickBot="1">
       <c r="C54" s="29" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="3:12">
       <c r="C55" s="34" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D55" s="35" t="s">
         <v>117</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F55" s="36" t="s">
         <v>118</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="3:12">
       <c r="C56" s="37" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="3:12">
       <c r="C57" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="3:12">
       <c r="C58" s="37" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="3:12">
       <c r="C59" s="37" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E59" s="32"/>
       <c r="F59" s="38" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="3:12">
       <c r="C60" s="37" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E60" s="32"/>
       <c r="F60" s="39" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="3:12">
       <c r="C61" s="37" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="40" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="3:12">
       <c r="C62" s="37" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E62" s="32"/>
       <c r="F62" s="38" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="3:12">
       <c r="C63" s="37" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="38" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="3:12">
       <c r="C64" s="37" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E64" s="32"/>
       <c r="F64" s="38" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="3:12">
       <c r="C65" s="37" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="38" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="3:12">
       <c r="C66" s="37" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="38" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="3:12">
       <c r="C67" s="37" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="38" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="3:12">
       <c r="C68" s="37" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F68" s="41" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="3:12" ht="19.5" thickBot="1">
       <c r="C69" s="42" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E69" s="43"/>
       <c r="F69" s="44" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="3:12">
       <c r="L70" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="3:12" ht="19.5" thickBot="1">
       <c r="C71" s="29" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="3:12" ht="19.5" thickBot="1">
       <c r="C72" s="26" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>117</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F72" s="28" t="s">
         <v>118</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="3:12" ht="19.5" thickBot="1">
       <c r="C73" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="F73" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="D73" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>413</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>374</v>
-      </c>
       <c r="L73" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="3:12" ht="19.5" thickBot="1">
       <c r="C74" s="25" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E74" s="25"/>
       <c r="F74" s="25" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="3:12" ht="19.5" thickBot="1">
       <c r="C75" s="25" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E75" s="25"/>
       <c r="F75" s="25" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="76" spans="3:12" ht="19.5" thickBot="1">
       <c r="C76" s="25" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E76" s="25"/>
       <c r="F76" s="25" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="77" spans="3:12">
       <c r="L77" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="3:12" ht="19.5" thickBot="1">
       <c r="C78" s="30" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="3:12" ht="19.5" thickBot="1">
       <c r="C79" s="26" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>117</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F79" s="28" t="s">
         <v>118</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="3:12" ht="19.5" thickBot="1">
       <c r="C80" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="F80" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="D80" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>413</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>374</v>
-      </c>
       <c r="L80" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="3:12" ht="19.5" thickBot="1">
       <c r="C81" s="25" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E81" s="25"/>
       <c r="F81" s="25" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="3:12" ht="19.5" thickBot="1">
       <c r="C82" s="25" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="25" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="3:12" ht="19.5" thickBot="1">
       <c r="C83" s="25" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E83" s="25"/>
       <c r="F83" s="25" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="3:12" ht="19.5" thickBot="1">
       <c r="C84" s="25" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E84" s="25"/>
       <c r="F84" s="25" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="3:12">
       <c r="L85" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="3:12" ht="19.5" thickBot="1">
       <c r="C86" s="29" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="87" spans="3:12" ht="19.5" thickBot="1">
       <c r="C87" s="26" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>117</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F87" s="28" t="s">
         <v>118</v>
@@ -8442,203 +8509,203 @@
     </row>
     <row r="88" spans="3:12" ht="19.5" thickBot="1">
       <c r="C88" s="25" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E88" s="25"/>
       <c r="F88" s="25" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" spans="3:12" ht="19.5" thickBot="1">
       <c r="C89" s="25" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E89" s="25"/>
       <c r="F89" s="25" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="3:12" ht="19.5" thickBot="1">
       <c r="C90" s="25" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E90" s="25"/>
       <c r="F90" s="25" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="3:12" ht="19.5" thickBot="1">
       <c r="C91" s="25" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E91" s="25"/>
       <c r="F91" s="25" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="3:12" ht="19.5" thickBot="1">
       <c r="C92" s="25" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E92" s="25"/>
       <c r="F92" s="25" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="3:12">
       <c r="L93" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="3:12" ht="19.5" thickBot="1">
       <c r="C94" s="29" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="95" spans="3:12" ht="19.5" thickBot="1">
       <c r="C95" s="26" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D95" s="27" t="s">
         <v>117</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F95" s="28" t="s">
         <v>118</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="96" spans="3:12" ht="19.5" thickBot="1">
       <c r="C96" s="25" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="3:12" ht="19.5" thickBot="1">
       <c r="C97" s="25" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E97" s="25"/>
       <c r="F97" s="25" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="98" spans="3:12" ht="19.5" thickBot="1">
       <c r="C98" s="25" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E98" s="25"/>
       <c r="F98" s="25" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="99" spans="3:12" ht="19.5" thickBot="1">
       <c r="C99" s="25" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E99" s="25"/>
       <c r="F99" s="25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100" spans="3:12" ht="19.5" thickBot="1">
       <c r="C100" s="25" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E100" s="25"/>
       <c r="F100" s="25" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101" spans="3:12" ht="19.5" thickBot="1">
       <c r="C101" s="25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E101" s="25"/>
       <c r="F101" s="25" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="3:12" ht="19.5" thickBot="1">
       <c r="C103" s="29" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="104" spans="3:12" ht="19.5" thickBot="1">
       <c r="C104" s="26" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D104" s="27" t="s">
         <v>117</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F104" s="28" t="s">
         <v>118</v>
@@ -8646,82 +8713,82 @@
     </row>
     <row r="105" spans="3:12" ht="19.5" thickBot="1">
       <c r="C105" s="25" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="3:12" ht="19.5" thickBot="1">
       <c r="C106" s="25" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E106" s="25"/>
       <c r="F106" s="25" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="3:12" ht="19.5" thickBot="1">
       <c r="C107" s="25" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E107" s="25"/>
       <c r="F107" s="25" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="108" spans="3:12" ht="19.5" thickBot="1">
       <c r="C108" s="25" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E108" s="25"/>
       <c r="F108" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="109" spans="3:12" ht="19.5" thickBot="1">
       <c r="C109" s="25" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="111" spans="3:12" ht="19.5" thickBot="1">
       <c r="C111" s="31" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="112" spans="3:12" ht="19.5" thickBot="1">
       <c r="C112" s="26" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D112" s="27" t="s">
         <v>117</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F112" s="28" t="s">
         <v>118</v>
@@ -8729,92 +8796,92 @@
     </row>
     <row r="113" spans="3:6" ht="19.5" thickBot="1">
       <c r="C113" s="25" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="114" spans="3:6" ht="19.5" thickBot="1">
       <c r="C114" s="25" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E114" s="25"/>
       <c r="F114" s="25" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="115" spans="3:6" ht="19.5" thickBot="1">
       <c r="C115" s="25" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E115" s="25"/>
       <c r="F115" s="25" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="116" spans="3:6" ht="19.5" thickBot="1">
       <c r="C116" s="25" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E116" s="25"/>
       <c r="F116" s="25" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="117" spans="3:6" ht="19.5" thickBot="1">
       <c r="C117" s="25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E117" s="25"/>
       <c r="F117" s="25" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="118" spans="3:6" ht="19.5" thickBot="1">
       <c r="C118" s="25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E118" s="25"/>
       <c r="F118" s="25" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="120" spans="3:6" ht="19.5" thickBot="1">
       <c r="C120" s="29" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="121" spans="3:6" ht="19.5" thickBot="1">
       <c r="C121" s="26" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D121" s="27" t="s">
         <v>117</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F121" s="28" t="s">
         <v>118</v>
@@ -8822,59 +8889,59 @@
     </row>
     <row r="122" spans="3:6" ht="19.5" thickBot="1">
       <c r="C122" s="25" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="123" spans="3:6" ht="19.5" thickBot="1">
       <c r="C123" s="25" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E123" s="25"/>
       <c r="F123" s="25" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="124" spans="3:6" ht="19.5" thickBot="1">
       <c r="C124" s="25" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E124" s="25"/>
       <c r="F124" s="25" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="125" spans="3:6" ht="19.5" thickBot="1">
       <c r="C125" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F125" s="25" t="s">
         <v>397</v>
-      </c>
-      <c r="D125" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="E125" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="F125" s="25" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -8923,24 +8990,24 @@
     </row>
     <row r="143" spans="1:5" ht="19.5" thickBot="1">
       <c r="C143" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="19.5" thickBot="1">
       <c r="C144" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="145" spans="2:5" ht="19.5" thickBot="1">
@@ -8951,7 +9018,7 @@
         <v>127</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="146" spans="2:5" ht="19.5" thickBot="1">
@@ -8962,7 +9029,7 @@
         <v>127</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="147" spans="2:5" ht="19.5" thickBot="1">
@@ -9011,12 +9078,12 @@
     </row>
     <row r="152" spans="2:5">
       <c r="B152" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="19.5">
       <c r="C153" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="154" spans="2:5">
@@ -9037,15 +9104,15 @@
     </row>
     <row r="156" spans="2:5">
       <c r="D156" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E156" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="157" spans="2:5">
       <c r="D157" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E157" t="s">
         <v>151</v>
@@ -9106,15 +9173,15 @@
     </row>
     <row r="165" spans="3:5">
       <c r="D165" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E165" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="166" spans="3:5">
       <c r="D166" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E166" t="s">
         <v>164</v>
@@ -9175,15 +9242,15 @@
     </row>
     <row r="174" spans="3:5">
       <c r="D174" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E174" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="175" spans="3:5">
       <c r="D175" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E175" t="s">
         <v>164</v>
@@ -9244,15 +9311,15 @@
     </row>
     <row r="183" spans="3:5">
       <c r="D183" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E183" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184" spans="3:5">
       <c r="D184" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E184" t="s">
         <v>151</v>
@@ -9297,15 +9364,15 @@
     </row>
     <row r="190" spans="3:5">
       <c r="D190" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E190" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="191" spans="3:5">
       <c r="D191" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E191" t="s">
         <v>151</v>
@@ -9350,15 +9417,15 @@
     </row>
     <row r="197" spans="3:5">
       <c r="D197" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E197" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="198" spans="3:5">
       <c r="D198" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E198" t="s">
         <v>151</v>
@@ -9403,15 +9470,15 @@
     </row>
     <row r="204" spans="3:5">
       <c r="D204" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E204" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="205" spans="3:5">
       <c r="D205" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E205" t="s">
         <v>153</v>
@@ -9488,15 +9555,15 @@
     </row>
     <row r="215" spans="3:5">
       <c r="D215" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E215" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="216" spans="3:5">
       <c r="D216" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E216" t="s">
         <v>153</v>
@@ -9541,15 +9608,15 @@
     </row>
     <row r="222" spans="3:5">
       <c r="D222" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E222" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="223" spans="3:5">
       <c r="D223" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E223" t="s">
         <v>164</v>
@@ -9589,71 +9656,71 @@
     </row>
     <row r="228" spans="3:5" ht="19.5">
       <c r="C228" s="19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="229" spans="3:5" ht="19.5">
       <c r="D229" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E229" s="21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="230" spans="3:5" ht="19.5">
       <c r="D230" s="21" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E230" s="21" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="231" spans="3:5" ht="19.5">
       <c r="D231" s="21" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E231" s="21" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="232" spans="3:5" ht="19.5">
       <c r="D232" s="21" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E232" s="21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="233" spans="3:5" ht="19.5">
       <c r="D233" s="21" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E233" s="21" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="234" spans="3:5" ht="19.5">
       <c r="D234" s="21" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E234" s="21" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="235" spans="3:5" ht="19.5">
       <c r="D235" s="21" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E235" s="21" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="236" spans="3:5" ht="19.5">
       <c r="D236" s="21" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E236" s="21" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -9665,10 +9732,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7835B25-768A-4C19-B78A-A2A5B6A41EB5}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:E57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9728,15 +9795,15 @@
     </row>
     <row r="12" spans="1:5" ht="19.5">
       <c r="B12" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.5">
       <c r="B14" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9755,7 +9822,7 @@
         <v>184</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="93.75">
@@ -9763,7 +9830,7 @@
         <v>185</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="3:5">
@@ -9771,19 +9838,19 @@
         <v>190</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="23"/>
       <c r="D19" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="75">
@@ -9792,26 +9859,26 @@
         <v>185</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D21" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" t="s">
         <v>238</v>
-      </c>
-      <c r="E21" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="93.75">
       <c r="D22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="3:5" ht="75">
@@ -9819,7 +9886,7 @@
         <v>185</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="3:5">
@@ -9838,7 +9905,7 @@
         <v>184</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="112.5">
@@ -9846,7 +9913,7 @@
         <v>185</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="3:5">
@@ -9865,7 +9932,7 @@
         <v>184</v>
       </c>
       <c r="E28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="3:5" ht="56.25">
@@ -9892,7 +9959,7 @@
         <v>184</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="3:5" ht="75">
@@ -9900,12 +9967,12 @@
         <v>185</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="19.5">
       <c r="B34" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -9924,7 +9991,7 @@
         <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="262.5">
@@ -9932,7 +9999,7 @@
         <v>185</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -9951,7 +10018,7 @@
         <v>184</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="75">
@@ -9959,120 +10026,120 @@
         <v>185</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="C41" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D41" t="s">
-        <v>210</v>
+        <v>496</v>
       </c>
       <c r="E41" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="75">
       <c r="D42" t="s">
         <v>184</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="131.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="75">
       <c r="D43" t="s">
         <v>185</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="19.5">
-      <c r="B45" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="C46" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="C44" s="7" t="s">
         <v>189</v>
       </c>
+      <c r="D44" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="D45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="131.25">
       <c r="D46" t="s">
-        <v>341</v>
-      </c>
-      <c r="E46" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="D47" t="s">
-        <v>184</v>
-      </c>
-      <c r="E47" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="356.25">
-      <c r="D48" t="s">
         <v>185</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>254</v>
+      <c r="E46" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="19.5">
+      <c r="B48" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="C49" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D49" t="s">
-        <v>211</v>
+        <v>338</v>
       </c>
       <c r="E49" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="225">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
       <c r="D50" t="s">
         <v>184</v>
       </c>
-      <c r="E50" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="75">
+      <c r="E50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="356.25">
       <c r="D51" t="s">
         <v>185</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="C52" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E52" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="225">
       <c r="D53" t="s">
         <v>184</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="300">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="75">
       <c r="D54" t="s">
         <v>185</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -10080,257 +10147,257 @@
         <v>189</v>
       </c>
       <c r="D55" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E55" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="93.75">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
       <c r="D56" t="s">
         <v>184</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="356.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="300">
       <c r="D57" t="s">
         <v>185</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="19.5">
-      <c r="B59" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="C60" s="7" t="s">
-        <v>188</v>
-      </c>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="C58" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" t="s">
+        <v>493</v>
+      </c>
+      <c r="E58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="75">
+      <c r="D59" t="s">
+        <v>184</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="409.5">
       <c r="D60" t="s">
-        <v>193</v>
-      </c>
-      <c r="E60" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="93.75">
-      <c r="D61" t="s">
-        <v>184</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="112.5">
-      <c r="D62" t="s">
         <v>185</v>
       </c>
-      <c r="E62" s="16" t="s">
-        <v>261</v>
+      <c r="E60" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="19.5">
+      <c r="B62" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="C63" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="56.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="93.75">
       <c r="D64" t="s">
         <v>184</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="262.5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="112.5">
       <c r="D65" t="s">
         <v>185</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="C66" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E66" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="337.5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="56.25">
       <c r="D67" t="s">
         <v>184</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="393.75">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="262.5">
       <c r="D68" t="s">
         <v>185</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="C69" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D69" t="s">
         <v>194</v>
       </c>
       <c r="E69" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="56.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="337.5">
       <c r="D70" t="s">
         <v>184</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" ht="409.5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="393.75">
       <c r="D71" t="s">
         <v>185</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" ht="19.5">
-      <c r="B73" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="C74" s="7" t="s">
-        <v>188</v>
-      </c>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="C72" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" t="s">
+        <v>194</v>
+      </c>
+      <c r="E72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="56.25">
+      <c r="D73" t="s">
+        <v>184</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="409.5">
       <c r="D74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E74" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" ht="93.75">
-      <c r="D75" t="s">
-        <v>184</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" ht="112.5">
-      <c r="D76" t="s">
         <v>185</v>
       </c>
-      <c r="E76" s="16" t="s">
-        <v>271</v>
+      <c r="E74" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="19.5">
+      <c r="B76" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="2:5">
       <c r="C77" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D77" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="E77" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="75">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="93.75">
       <c r="D78" t="s">
         <v>184</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="356.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="112.5">
       <c r="D79" t="s">
         <v>185</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" ht="19.5">
-      <c r="B81" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="C82" s="7" t="s">
-        <v>188</v>
-      </c>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="C80" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D80" t="s">
+        <v>221</v>
+      </c>
+      <c r="E80" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="75">
+      <c r="D81" t="s">
+        <v>184</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="356.25">
       <c r="D82" t="s">
-        <v>224</v>
-      </c>
-      <c r="E82" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="131.25">
-      <c r="D83" t="s">
-        <v>184</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" ht="168.75">
-      <c r="D84" t="s">
         <v>185</v>
       </c>
-      <c r="E84" s="16" t="s">
-        <v>273</v>
+      <c r="E82" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="19.5">
+      <c r="B84" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="C85" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D85" t="s">
+        <v>223</v>
+      </c>
+      <c r="E85" t="s">
         <v>224</v>
       </c>
-      <c r="E85" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" ht="75">
+    </row>
+    <row r="86" spans="2:5" ht="131.25">
       <c r="D86" t="s">
         <v>184</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" ht="409.5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="168.75">
       <c r="D87" t="s">
         <v>185</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="2:5">
@@ -10338,80 +10405,107 @@
         <v>189</v>
       </c>
       <c r="D88" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E88" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="75">
       <c r="D89" t="s">
         <v>184</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" ht="187.5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="409.5">
       <c r="D90" t="s">
         <v>185</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="2:5">
       <c r="C91" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D91" t="s">
+        <v>226</v>
+      </c>
+      <c r="E91" t="s">
         <v>227</v>
       </c>
-      <c r="E91" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" ht="131.25">
+    </row>
+    <row r="92" spans="2:5">
       <c r="D92" t="s">
         <v>184</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" ht="168.75">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="187.5">
       <c r="D93" t="s">
         <v>185</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="2:5">
       <c r="C94" s="7" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="D94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E94" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" ht="131.25">
       <c r="D95" t="s">
         <v>184</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" ht="93.75">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="168.75">
       <c r="D96" t="s">
         <v>185</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>278</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5">
+      <c r="C97" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D97" t="s">
+        <v>226</v>
+      </c>
+      <c r="E97" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5">
+      <c r="D98" t="s">
+        <v>184</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" ht="93.75">
+      <c r="D99" t="s">
+        <v>185</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/基本設計.xlsx
+++ b/基本設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuyaK\Programs\tamotsuApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4819A0D7-7EA7-4B4B-81CE-50FBE60095EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE0899C-804B-42D6-A93D-6DE054920064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{D88CB032-6C85-43BC-8203-54BE0CB90655}"/>
+    <workbookView xWindow="-24975" yWindow="1290" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{D88CB032-6C85-43BC-8203-54BE0CB90655}"/>
   </bookViews>
   <sheets>
     <sheet name="システム概要" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="503">
   <si>
     <t>1. システム概要</t>
   </si>
@@ -5577,18 +5577,6 @@
   </si>
   <si>
     <t>チャットの一意識別子</t>
-  </si>
-  <si>
-    <t>start_time</t>
-  </si>
-  <si>
-    <t>チャットの開始時間</t>
-  </si>
-  <si>
-    <t>end_time</t>
-  </si>
-  <si>
-    <t>チャットの終了時間</t>
   </si>
   <si>
     <t>status</t>
@@ -5982,12 +5970,109 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>connection_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>接続</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>管理テーブル</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (connections)</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>connected_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャットのタイムスタンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>connector_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>content_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>メッセ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ージの種別</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6284,6 +6369,22 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6494,7 +6595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6628,6 +6729,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7592,10 +7699,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D4FE9-8BA9-4D91-B1AE-9CFF14E398B8}">
-  <dimension ref="A1:L236"/>
+  <dimension ref="A1:L235"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7783,7 +7890,7 @@
     </row>
     <row r="36" spans="2:12" ht="19.5">
       <c r="B36" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
@@ -7793,7 +7900,7 @@
     </row>
     <row r="37" spans="2:12" ht="19.5" thickBot="1">
       <c r="C37" s="31" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>306</v>
@@ -7852,7 +7959,7 @@
     </row>
     <row r="41" spans="2:12" ht="19.5" thickBot="1">
       <c r="C41" s="25" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>369</v>
@@ -7867,14 +7974,14 @@
     </row>
     <row r="42" spans="2:12" ht="19.5" thickBot="1">
       <c r="C42" s="25" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="14" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>297</v>
@@ -7987,14 +8094,14 @@
     </row>
     <row r="50" spans="3:12" ht="19.5" thickBot="1">
       <c r="C50" s="25" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>384</v>
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="14" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>297</v>
@@ -8104,7 +8211,7 @@
         <v>369</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F58" s="38" t="s">
         <v>405</v>
@@ -8130,14 +8237,14 @@
     </row>
     <row r="60" spans="3:12">
       <c r="C60" s="37" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D60" s="32" t="s">
         <v>384</v>
       </c>
       <c r="E60" s="32"/>
       <c r="F60" s="39" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L60" s="6" t="s">
         <v>315</v>
@@ -8145,14 +8252,14 @@
     </row>
     <row r="61" spans="3:12">
       <c r="C61" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D61" s="32" t="s">
         <v>384</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="40" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L61" s="6" t="s">
         <v>316</v>
@@ -8160,14 +8267,14 @@
     </row>
     <row r="62" spans="3:12">
       <c r="C62" s="37" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D62" s="32" t="s">
         <v>384</v>
       </c>
       <c r="E62" s="32"/>
       <c r="F62" s="38" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L62" s="6" t="s">
         <v>317</v>
@@ -8175,14 +8282,14 @@
     </row>
     <row r="63" spans="3:12">
       <c r="C63" s="37" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>318</v>
@@ -8190,14 +8297,14 @@
     </row>
     <row r="64" spans="3:12">
       <c r="C64" s="37" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D64" s="32" t="s">
         <v>384</v>
       </c>
       <c r="E64" s="32"/>
       <c r="F64" s="38" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L64" s="6" t="s">
         <v>290</v>
@@ -8205,14 +8312,14 @@
     </row>
     <row r="65" spans="3:12">
       <c r="C65" s="37" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D65" s="32" t="s">
         <v>384</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="38" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L65" s="6" t="s">
         <v>319</v>
@@ -8220,14 +8327,14 @@
     </row>
     <row r="66" spans="3:12">
       <c r="C66" s="37" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D66" s="32" t="s">
         <v>384</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="38" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L66" s="6" t="s">
         <v>295</v>
@@ -8235,14 +8342,14 @@
     </row>
     <row r="67" spans="3:12">
       <c r="C67" s="37" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="38" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L67" s="6" t="s">
         <v>296</v>
@@ -8359,7 +8466,7 @@
     </row>
     <row r="76" spans="3:12" ht="19.5" thickBot="1">
       <c r="C76" s="25" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D76" s="25" t="s">
         <v>395</v>
@@ -8466,7 +8573,7 @@
     </row>
     <row r="84" spans="3:12" ht="19.5" thickBot="1">
       <c r="C84" s="25" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D84" s="25" t="s">
         <v>395</v>
@@ -8569,7 +8676,7 @@
     </row>
     <row r="92" spans="3:12" ht="19.5" thickBot="1">
       <c r="C92" s="25" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D92" s="25" t="s">
         <v>395</v>
@@ -8589,7 +8696,7 @@
     </row>
     <row r="94" spans="3:12" ht="19.5" thickBot="1">
       <c r="C94" s="29" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L94" s="6" t="s">
         <v>334</v>
@@ -8661,7 +8768,7 @@
         <v>436</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E99" s="25"/>
       <c r="F99" s="25" t="s">
@@ -8670,95 +8777,95 @@
     </row>
     <row r="100" spans="3:12" ht="19.5" thickBot="1">
       <c r="C100" s="25" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="D100" s="25" t="s">
         <v>395</v>
       </c>
       <c r="E100" s="25"/>
-      <c r="F100" s="25" t="s">
+      <c r="F100" s="46" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C102" s="29" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="103" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C103" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D103" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E103" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="F103" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C104" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="E104" s="25" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C101" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="D101" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="103" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C103" s="29" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="104" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C104" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="D104" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E104" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="F104" s="28" t="s">
-        <v>118</v>
+      <c r="F104" s="25" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="105" spans="3:12" ht="19.5" thickBot="1">
       <c r="C105" s="25" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="E105" s="25" t="s">
-        <v>443</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="E105" s="25"/>
       <c r="F105" s="25" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="106" spans="3:12" ht="19.5" thickBot="1">
       <c r="C106" s="25" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="E106" s="25"/>
       <c r="F106" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="107" spans="3:12" ht="19.5" thickBot="1">
       <c r="C107" s="25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="E107" s="25"/>
       <c r="F107" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="108" spans="3:12" ht="19.5" thickBot="1">
       <c r="C108" s="25" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="E108" s="25"/>
-      <c r="F108" s="25" t="s">
-        <v>448</v>
+      <c r="F108" s="14" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="109" spans="3:12" ht="19.5" thickBot="1">
@@ -8772,12 +8879,12 @@
         <v>396</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="111" spans="3:12" ht="19.5" thickBot="1">
       <c r="C111" s="31" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="112" spans="3:12" ht="19.5" thickBot="1">
@@ -8796,7 +8903,7 @@
     </row>
     <row r="113" spans="3:6" ht="19.5" thickBot="1">
       <c r="C113" s="25" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D113" s="25" t="s">
         <v>369</v>
@@ -8805,7 +8912,7 @@
         <v>370</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="114" spans="3:6" ht="19.5" thickBot="1">
@@ -8834,43 +8941,43 @@
     </row>
     <row r="116" spans="3:6" ht="19.5" thickBot="1">
       <c r="C116" s="25" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D116" s="25" t="s">
         <v>395</v>
       </c>
       <c r="E116" s="25"/>
       <c r="F116" s="25" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="117" spans="3:6" ht="19.5" thickBot="1">
       <c r="C117" s="25" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D117" s="25" t="s">
         <v>378</v>
       </c>
       <c r="E117" s="25"/>
       <c r="F117" s="25" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="118" spans="3:6" ht="19.5" thickBot="1">
       <c r="C118" s="25" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D118" s="25" t="s">
         <v>384</v>
       </c>
       <c r="E118" s="25"/>
       <c r="F118" s="25" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="120" spans="3:6" ht="19.5" thickBot="1">
       <c r="C120" s="29" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="121" spans="3:6" ht="19.5" thickBot="1">
@@ -8903,26 +9010,26 @@
     </row>
     <row r="123" spans="3:6" ht="19.5" thickBot="1">
       <c r="C123" s="25" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>378</v>
       </c>
       <c r="E123" s="25"/>
       <c r="F123" s="25" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="124" spans="3:6" ht="19.5" thickBot="1">
       <c r="C124" s="25" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>369</v>
       </c>
       <c r="E124" s="25"/>
       <c r="F124" s="25" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="125" spans="3:6" ht="19.5" thickBot="1">
@@ -8939,787 +9046,846 @@
         <v>397</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
-      <c r="A136" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="B137" s="1" t="s">
+    <row r="127" spans="3:6" ht="19.5" thickBot="1">
+      <c r="C127" s="45" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6" ht="19.5" thickBot="1">
+      <c r="C128" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D128" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E128" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="F128" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="19.5" thickBot="1">
+      <c r="C129" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="D129" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="E129" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="19.5" thickBot="1">
+      <c r="C130" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="19.5" thickBot="1">
+      <c r="C131" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="D131" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F131" s="25" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="B136" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
-      <c r="C138" s="2" t="s">
+    <row r="137" spans="1:6">
+      <c r="C137" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="19.5" thickBot="1"/>
-    <row r="140" spans="1:5" ht="19.5" thickBot="1">
-      <c r="C140" s="9" t="s">
+    <row r="138" spans="1:6" ht="19.5" thickBot="1"/>
+    <row r="139" spans="1:6" ht="19.5" thickBot="1">
+      <c r="C139" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D139" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E139" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="19.5" thickBot="1">
+    <row r="140" spans="1:6" ht="19.5" thickBot="1">
+      <c r="C140" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="19.5" thickBot="1">
       <c r="C141" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="19.5" thickBot="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="19.5" thickBot="1">
       <c r="C142" s="8" t="s">
-        <v>123</v>
+        <v>342</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E142" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="19.5" thickBot="1">
+      <c r="E142" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="19.5" thickBot="1">
       <c r="C143" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="19.5" thickBot="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="19.5" thickBot="1">
       <c r="C144" s="8" t="s">
-        <v>340</v>
+        <v>125</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="145" spans="2:5" ht="19.5" thickBot="1">
       <c r="C145" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="146" spans="2:5" ht="19.5" thickBot="1">
       <c r="C146" s="8" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>347</v>
+        <v>174</v>
       </c>
     </row>
     <row r="147" spans="2:5" ht="19.5" thickBot="1">
       <c r="C147" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" ht="19.5" thickBot="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" ht="29.25" thickBot="1">
       <c r="C148" s="8" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E148" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" ht="29.25" thickBot="1">
+      <c r="E148" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" ht="19.5" thickBot="1">
       <c r="C149" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" ht="19.5" thickBot="1">
-      <c r="C150" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E150" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="152" spans="2:5">
-      <c r="B152" s="1" t="s">
+    <row r="151" spans="2:5">
+      <c r="B151" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="19.5">
-      <c r="C153" s="17" t="s">
+    <row r="152" spans="2:5" ht="19.5">
+      <c r="C152" s="17" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="D153" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E153" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="2:5">
       <c r="D154" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E154" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="2:5">
       <c r="D155" s="7" t="s">
-        <v>123</v>
+        <v>341</v>
       </c>
       <c r="E155" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
     </row>
     <row r="156" spans="2:5">
       <c r="D156" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E156" t="s">
-        <v>278</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="2:5">
       <c r="D157" s="7" t="s">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="E157" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158" spans="2:5">
       <c r="D158" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E158" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="159" spans="2:5">
       <c r="D159" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E159" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="160" spans="2:5">
       <c r="D160" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E160" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="161" spans="3:5">
-      <c r="D161" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E161" t="s">
-        <v>143</v>
+      <c r="C161" s="13" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="162" spans="3:5">
-      <c r="C162" s="13" t="s">
-        <v>139</v>
+      <c r="D162" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E162" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="163" spans="3:5">
       <c r="D163" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E163" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
     </row>
     <row r="164" spans="3:5">
       <c r="D164" s="7" t="s">
-        <v>123</v>
+        <v>341</v>
       </c>
       <c r="E164" t="s">
-        <v>201</v>
+        <v>279</v>
       </c>
     </row>
     <row r="165" spans="3:5">
       <c r="D165" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E165" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="3:5">
       <c r="D166" s="7" t="s">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="E166" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167" spans="3:5">
       <c r="D167" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E167" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="3:5">
       <c r="D168" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E168" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169" spans="3:5">
       <c r="D169" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E169" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="3:5">
-      <c r="D170" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E170" t="s">
-        <v>168</v>
+      <c r="C170" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="3:5">
-      <c r="C171" s="13" t="s">
-        <v>165</v>
+      <c r="D171" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E171" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="172" spans="3:5">
       <c r="D172" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E172" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="173" spans="3:5">
       <c r="D173" s="7" t="s">
-        <v>123</v>
+        <v>341</v>
       </c>
       <c r="E173" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
     </row>
     <row r="174" spans="3:5">
       <c r="D174" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E174" t="s">
-        <v>280</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175" spans="3:5">
       <c r="D175" s="7" t="s">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="E175" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="176" spans="3:5">
       <c r="D176" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E176" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="177" spans="3:5">
       <c r="D177" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E177" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="3:5">
       <c r="D178" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E178" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179" spans="3:5">
-      <c r="D179" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E179" t="s">
-        <v>167</v>
+      <c r="C179" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="180" spans="3:5">
-      <c r="C180" s="12" t="s">
-        <v>138</v>
+      <c r="D180" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E180" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="181" spans="3:5">
       <c r="D181" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E181" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="182" spans="3:5">
       <c r="D182" s="7" t="s">
-        <v>123</v>
+        <v>341</v>
       </c>
       <c r="E182" t="s">
-        <v>145</v>
+        <v>281</v>
       </c>
     </row>
     <row r="183" spans="3:5">
       <c r="D183" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E183" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
     </row>
     <row r="184" spans="3:5">
       <c r="D184" s="7" t="s">
-        <v>339</v>
+        <v>128</v>
       </c>
       <c r="E184" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="185" spans="3:5">
       <c r="D185" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E185" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="186" spans="3:5">
-      <c r="D186" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E186" t="s">
-        <v>147</v>
+      <c r="C186" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="187" spans="3:5">
-      <c r="C187" s="12" t="s">
-        <v>137</v>
+      <c r="D187" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E187" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="188" spans="3:5">
       <c r="D188" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E188" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="189" spans="3:5">
       <c r="D189" s="7" t="s">
-        <v>123</v>
+        <v>341</v>
       </c>
       <c r="E189" t="s">
-        <v>148</v>
+        <v>282</v>
       </c>
     </row>
     <row r="190" spans="3:5">
       <c r="D190" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E190" t="s">
-        <v>282</v>
+        <v>151</v>
       </c>
     </row>
     <row r="191" spans="3:5">
       <c r="D191" s="7" t="s">
-        <v>339</v>
+        <v>128</v>
       </c>
       <c r="E191" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="192" spans="3:5">
       <c r="D192" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E192" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="193" spans="3:5">
-      <c r="D193" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E193" t="s">
-        <v>150</v>
+      <c r="C193" s="12" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="194" spans="3:5">
-      <c r="C194" s="12" t="s">
-        <v>136</v>
+      <c r="D194" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E194" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="195" spans="3:5">
       <c r="D195" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E195" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="196" spans="3:5">
       <c r="D196" s="7" t="s">
-        <v>123</v>
+        <v>341</v>
       </c>
       <c r="E196" t="s">
-        <v>161</v>
+        <v>283</v>
       </c>
     </row>
     <row r="197" spans="3:5">
       <c r="D197" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E197" t="s">
-        <v>283</v>
+        <v>151</v>
       </c>
     </row>
     <row r="198" spans="3:5">
       <c r="D198" s="7" t="s">
-        <v>339</v>
+        <v>128</v>
       </c>
       <c r="E198" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="199" spans="3:5">
       <c r="D199" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E199" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="200" spans="3:5">
-      <c r="D200" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E200" t="s">
-        <v>163</v>
+      <c r="C200" s="12" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="201" spans="3:5">
-      <c r="C201" s="12" t="s">
-        <v>135</v>
+      <c r="D201" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E201" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="202" spans="3:5">
       <c r="D202" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E202" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="203" spans="3:5">
       <c r="D203" s="7" t="s">
-        <v>123</v>
+        <v>341</v>
       </c>
       <c r="E203" t="s">
-        <v>157</v>
+        <v>284</v>
       </c>
     </row>
     <row r="204" spans="3:5">
       <c r="D204" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E204" t="s">
-        <v>284</v>
+        <v>153</v>
       </c>
     </row>
     <row r="205" spans="3:5">
       <c r="D205" s="7" t="s">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="E205" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="206" spans="3:5">
       <c r="D206" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E206" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="207" spans="3:5">
       <c r="D207" s="7" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="E207" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="208" spans="3:5">
       <c r="D208" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E208" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="209" spans="3:5">
       <c r="D209" s="7" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E209" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="210" spans="3:5">
       <c r="D210" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E210" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="211" spans="3:5">
-      <c r="D211" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E211" t="s">
-        <v>160</v>
+      <c r="C211" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="212" spans="3:5">
-      <c r="C212" s="12" t="s">
-        <v>134</v>
+      <c r="D212" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E212" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="213" spans="3:5">
       <c r="D213" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E213" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="214" spans="3:5">
       <c r="D214" s="7" t="s">
-        <v>123</v>
+        <v>341</v>
       </c>
       <c r="E214" t="s">
-        <v>154</v>
+        <v>285</v>
       </c>
     </row>
     <row r="215" spans="3:5">
       <c r="D215" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E215" t="s">
-        <v>285</v>
+        <v>153</v>
       </c>
     </row>
     <row r="216" spans="3:5">
       <c r="D216" s="7" t="s">
-        <v>339</v>
+        <v>128</v>
       </c>
       <c r="E216" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="217" spans="3:5">
       <c r="D217" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E217" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="218" spans="3:5">
-      <c r="D218" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E218" t="s">
-        <v>156</v>
+      <c r="C218" s="12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="219" spans="3:5">
-      <c r="C219" s="12" t="s">
-        <v>133</v>
+      <c r="D219" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E219" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="220" spans="3:5">
       <c r="D220" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E220" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="221" spans="3:5">
       <c r="D221" s="7" t="s">
-        <v>123</v>
+        <v>341</v>
       </c>
       <c r="E221" t="s">
-        <v>141</v>
+        <v>286</v>
       </c>
     </row>
     <row r="222" spans="3:5">
       <c r="D222" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E222" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
     </row>
     <row r="223" spans="3:5">
       <c r="D223" s="7" t="s">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="E223" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="224" spans="3:5">
       <c r="D224" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E224" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
     </row>
     <row r="225" spans="3:5">
       <c r="D225" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E225" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
     </row>
     <row r="226" spans="3:5">
       <c r="D226" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E226" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="227" spans="3:5">
-      <c r="D227" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E227" t="s">
         <v>199</v>
       </c>
     </row>
+    <row r="227" spans="3:5" ht="19.5">
+      <c r="C227" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
     <row r="228" spans="3:5" ht="19.5">
-      <c r="C228" s="19" t="s">
-        <v>348</v>
+      <c r="D228" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E228" s="21" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="229" spans="3:5" ht="19.5">
-      <c r="D229" s="20" t="s">
-        <v>349</v>
+      <c r="D229" s="21" t="s">
+        <v>351</v>
       </c>
       <c r="E229" s="21" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="230" spans="3:5" ht="19.5">
       <c r="D230" s="21" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E230" s="21" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="231" spans="3:5" ht="19.5">
       <c r="D231" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E231" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="232" spans="3:5" ht="19.5">
       <c r="D232" s="21" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E232" s="21" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="233" spans="3:5" ht="19.5">
       <c r="D233" s="21" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E233" s="21" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="234" spans="3:5" ht="19.5">
       <c r="D234" s="21" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E234" s="21" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="235" spans="3:5" ht="19.5">
       <c r="D235" s="21" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E235" s="21" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="236" spans="3:5" ht="19.5">
-      <c r="D236" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="E236" s="21" t="s">
         <v>359</v>
       </c>
     </row>
@@ -9734,8 +9900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7835B25-768A-4C19-B78A-A2A5B6A41EB5}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10034,10 +10200,10 @@
         <v>191</v>
       </c>
       <c r="D41" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E41" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="75">
@@ -10045,7 +10211,7 @@
         <v>184</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="75">
@@ -10053,7 +10219,7 @@
         <v>185</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="2:5">
@@ -10174,7 +10340,7 @@
         <v>189</v>
       </c>
       <c r="D58" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E58" t="s">
         <v>216</v>
@@ -10185,7 +10351,7 @@
         <v>184</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="409.5">
@@ -10193,7 +10359,7 @@
         <v>185</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="19.5">
